--- a/data.xlsx
+++ b/data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aczz248\OneDrive - City, University of London\Code\MSM\Julia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aczz248\OneDrive - City, University of London\Code\MSM\Julia\MSM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -48,6 +48,14 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>Value</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
@@ -81,7 +89,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -386,5011 +394,5019 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A1000"/>
+  <dimension ref="A1:A1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A983" workbookViewId="0">
-      <selection activeCell="A997" sqref="A997"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
-        <v>-2.5560517937345751E-2</v>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>1.567603797701551E-2</v>
+        <v>-2.5560517937345751E-2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>-1.6252108994313553E-2</v>
+        <v>1.567603797701551E-2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>-4.0034680319728719E-2</v>
+        <v>-1.6252108994313553E-2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>2.1809814155059292E-2</v>
+        <v>-4.0034680319728719E-2</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>-3.2954878246930261E-2</v>
+        <v>2.1809814155059292E-2</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>3.4332301997961959E-2</v>
+        <v>-3.2954878246930261E-2</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>6.6873567544487146E-3</v>
+        <v>3.4332301997961959E-2</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>1.1336640640991113E-2</v>
+        <v>6.6873567544487146E-3</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>-3.9878987494892824E-3</v>
+        <v>1.1336640640991113E-2</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>-2.803556080905505E-2</v>
+        <v>-3.9878987494892824E-3</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>8.6500594625766418E-3</v>
+        <v>-2.803556080905505E-2</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>-1.2557559668519503E-2</v>
+        <v>8.6500594625766418E-3</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>-1.3038830902439003E-2</v>
+        <v>-1.2557559668519503E-2</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>-6.6847946999233797E-3</v>
+        <v>-1.3038830902439003E-2</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>-2.9376115348702037E-2</v>
+        <v>-6.6847946999233797E-3</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>3.3403265384929883E-3</v>
+        <v>-2.9376115348702037E-2</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>-3.0526996444826971E-2</v>
+        <v>3.3403265384929883E-3</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>-2.7987635143745136E-3</v>
+        <v>-3.0526996444826971E-2</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>3.2907620729426948E-2</v>
+        <v>-2.7987635143745136E-3</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>-1.0232826670229401E-3</v>
+        <v>3.2907620729426948E-2</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>-1.9015144266148632E-2</v>
+        <v>-1.0232826670229401E-3</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>-2.3325222367224719E-2</v>
+        <v>-1.9015144266148632E-2</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>3.4460344076103946E-2</v>
+        <v>-2.3325222367224719E-2</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>-2.2474996912841761E-2</v>
+        <v>3.4460344076103946E-2</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>-1.8946958540844428E-2</v>
+        <v>-2.2474996912841761E-2</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>-2.2727914030843444E-2</v>
+        <v>-1.8946958540844428E-2</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>-1.8614506856810032E-2</v>
+        <v>-2.2727914030843444E-2</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>8.2675063481564941E-3</v>
+        <v>-1.8614506856810032E-2</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>-1.3938044068152067E-2</v>
+        <v>8.2675063481564941E-3</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>4.2798290705028566E-2</v>
+        <v>-1.3938044068152067E-2</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>3.9220953195905753E-2</v>
+        <v>4.2798290705028566E-2</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>7.8096816261734149E-3</v>
+        <v>3.9220953195905753E-2</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>4.9012527632412886E-2</v>
+        <v>7.8096816261734149E-3</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>-4.0251592308069559E-2</v>
+        <v>4.9012527632412886E-2</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>3.137191517685807E-2</v>
+        <v>-4.0251592308069559E-2</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>1.1696704696719528E-2</v>
+        <v>3.137191517685807E-2</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>1.6326475888338975E-2</v>
+        <v>1.1696704696719528E-2</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>-1.343158336850685E-2</v>
+        <v>1.6326475888338975E-2</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>2.0528759988042999E-2</v>
+        <v>-1.343158336850685E-2</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>-1.6901294803447976E-2</v>
+        <v>2.0528759988042999E-2</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>2.418994638429801E-2</v>
+        <v>-1.6901294803447976E-2</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>-1.2027355411483854E-2</v>
+        <v>2.418994638429801E-2</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>-1.2154877464217329E-2</v>
+        <v>-1.2027355411483854E-2</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>1.947091027634169E-2</v>
+        <v>-1.2154877464217329E-2</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>1.8068913867043789E-3</v>
+        <v>1.947091027634169E-2</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>2.2541523503049454E-2</v>
+        <v>1.8068913867043789E-3</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>2.5531680743038975E-2</v>
+        <v>2.2541523503049454E-2</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>2.8430577917923474E-3</v>
+        <v>2.5531680743038975E-2</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>1.2170953973206621E-2</v>
+        <v>2.8430577917923474E-3</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>-3.0715551201041792E-2</v>
+        <v>1.2170953973206621E-2</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>-1.3208242082990474E-2</v>
+        <v>-3.0715551201041792E-2</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>-3.0404030983910247E-2</v>
+        <v>-1.3208242082990474E-2</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>2.2293906444884114E-2</v>
+        <v>-3.0404030983910247E-2</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>8.2167545811373081E-3</v>
+        <v>2.2293906444884114E-2</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>3.573817981161316E-2</v>
+        <v>8.2167545811373081E-3</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>-7.3604464606162883E-4</v>
+        <v>3.573817981161316E-2</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>-1.2909777458761696E-2</v>
+        <v>-7.3604464606162883E-4</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>-1.4324397074064344E-2</v>
+        <v>-1.2909777458761696E-2</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>3.1634921295496457E-2</v>
+        <v>-1.4324397074064344E-2</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>3.2928528282216443E-2</v>
+        <v>3.1634921295496457E-2</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>3.4375161523065857E-4</v>
+        <v>3.2928528282216443E-2</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>8.4533627661437898E-3</v>
+        <v>3.4375161523065857E-4</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>-2.6077063210015617E-2</v>
+        <v>8.4533627661437898E-3</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>2.9211037870623357E-2</v>
+        <v>-2.6077063210015617E-2</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>-6.6419845790386843E-3</v>
+        <v>2.9211037870623357E-2</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>3.5823945505814693E-3</v>
+        <v>-6.6419845790386843E-3</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>-2.4887350490313587E-2</v>
+        <v>3.5823945505814693E-3</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>-1.3393683214961528E-2</v>
+        <v>-2.4887350490313587E-2</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>-1.4264486773117469E-2</v>
+        <v>-1.3393683214961528E-2</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>7.785433928466823E-3</v>
+        <v>-1.4264486773117469E-2</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>-4.0119535395046133E-2</v>
+        <v>7.785433928466823E-3</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>1.6662598697782371E-2</v>
+        <v>-4.0119535395046133E-2</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>3.7163957741876532E-3</v>
+        <v>1.6662598697782371E-2</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>1.6504101513616475E-3</v>
+        <v>3.7163957741876532E-3</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>-2.735502121678195E-2</v>
+        <v>1.6504101513616475E-3</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>2.6978597824238903E-2</v>
+        <v>-2.735502121678195E-2</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>-6.3972373946501902E-3</v>
+        <v>2.6978597824238903E-2</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>-2.2649897933749764E-2</v>
+        <v>-6.3972373946501902E-3</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>-5.9241460096489005E-3</v>
+        <v>-2.2649897933749764E-2</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>6.1210137493505458E-3</v>
+        <v>-5.9241460096489005E-3</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>1.3115756694532087E-2</v>
+        <v>6.1210137493505458E-3</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>-7.1621464253713183E-3</v>
+        <v>1.3115756694532087E-2</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>-3.8094246998728208E-3</v>
+        <v>-7.1621464253713183E-3</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>-1.4884245304561717E-2</v>
+        <v>-3.8094246998728208E-3</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>-6.9924800033065891E-3</v>
+        <v>-1.4884245304561717E-2</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>-3.4798251446524374E-3</v>
+        <v>-6.9924800033065891E-3</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>3.5811794081529416E-2</v>
+        <v>-3.4798251446524374E-3</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>1.1421925157179657E-3</v>
+        <v>3.5811794081529416E-2</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>2.3918404105018175E-2</v>
+        <v>1.1421925157179657E-3</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>6.7189317562494468E-3</v>
+        <v>2.3918404105018175E-2</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>-2.2002308769415713E-2</v>
+        <v>6.7189317562494468E-3</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>2.58700713904771E-2</v>
+        <v>-2.2002308769415713E-2</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>5.950013148305189E-3</v>
+        <v>2.58700713904771E-2</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>-1.6279142994324758E-3</v>
+        <v>5.950013148305189E-3</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>9.8187071755717163E-3</v>
+        <v>-1.6279142994324758E-3</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>-1.5771650350175293E-2</v>
+        <v>9.8187071755717163E-3</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>-1.0981992131414309E-2</v>
+        <v>-1.5771650350175293E-2</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>-3.4442219476448696E-2</v>
+        <v>-1.0981992131414309E-2</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>-9.1807793612755269E-3</v>
+        <v>-3.4442219476448696E-2</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>-3.9693484642809194E-3</v>
+        <v>-9.1807793612755269E-3</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>2.0489298900256258E-2</v>
+        <v>-3.9693484642809194E-3</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>-3.4259807718250809E-2</v>
+        <v>2.0489298900256258E-2</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>-1.3115937823202018E-2</v>
+        <v>-3.4259807718250809E-2</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>1.2212150386616116E-2</v>
+        <v>-1.3115937823202018E-2</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>1.1295257988619588E-2</v>
+        <v>1.2212150386616116E-2</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>-2.7113549085807698E-2</v>
+        <v>1.1295257988619588E-2</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>-1.5563588240199878E-3</v>
+        <v>-2.7113549085807698E-2</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>1.7111465768071099E-3</v>
+        <v>-1.5563588240199878E-3</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>-1.3881750957735407E-2</v>
+        <v>1.7111465768071099E-3</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>-4.0332283954292334E-3</v>
+        <v>-1.3881750957735407E-2</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>-2.9009151414154387E-4</v>
+        <v>-4.0332283954292334E-3</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>-1.5373038104685755E-2</v>
+        <v>-2.9009151414154387E-4</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>1.0552450638060939E-2</v>
+        <v>-1.5373038104685755E-2</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>-1.4081023233234902E-3</v>
+        <v>1.0552450638060939E-2</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>-1.327757300832726E-2</v>
+        <v>-1.4081023233234902E-3</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>-1.6637863072340054E-3</v>
+        <v>-1.327757300832726E-2</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>2.4832029453709836E-2</v>
+        <v>-1.6637863072340054E-3</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>2.6914644617908223E-2</v>
+        <v>2.4832029453709836E-2</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>-9.5833357597008735E-3</v>
+        <v>2.6914644617908223E-2</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>-2.7852669695514363E-3</v>
+        <v>-9.5833357597008735E-3</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>1.2808280952700989E-2</v>
+        <v>-2.7852669695514363E-3</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>-2.0412054590572205E-2</v>
+        <v>1.2808280952700989E-2</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>4.5117922442125648E-3</v>
+        <v>-2.0412054590572205E-2</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>-1.9687491164006411E-2</v>
+        <v>4.5117922442125648E-3</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>1.4954309579830748E-2</v>
+        <v>-1.9687491164006411E-2</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>9.7382186084999482E-3</v>
+        <v>1.4954309579830748E-2</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>-1.3432538580459053E-2</v>
+        <v>9.7382186084999482E-3</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>-9.9948079148919795E-3</v>
+        <v>-1.3432538580459053E-2</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>4.5900960750079991E-3</v>
+        <v>-9.9948079148919795E-3</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>-9.2622088010870136E-3</v>
+        <v>4.5900960750079991E-3</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>1.3735692266704902E-3</v>
+        <v>-9.2622088010870136E-3</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>-2.1306204459534506E-2</v>
+        <v>1.3735692266704902E-3</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>-5.8789125707299659E-3</v>
+        <v>-2.1306204459534506E-2</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>5.6256450992659525E-3</v>
+        <v>-5.8789125707299659E-3</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>4.6511129130166043E-2</v>
+        <v>5.6256450992659525E-3</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>-7.9501856464219149E-4</v>
+        <v>4.6511129130166043E-2</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>3.755286124886599E-2</v>
+        <v>-7.9501856464219149E-4</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>5.4627129239801066E-3</v>
+        <v>3.755286124886599E-2</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>-2.95462529481032E-3</v>
+        <v>5.4627129239801066E-3</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>3.6048717916063568E-3</v>
+        <v>-2.95462529481032E-3</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>1.3036159142884429E-2</v>
+        <v>3.6048717916063568E-3</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>-3.7768459537490348E-2</v>
+        <v>1.3036159142884429E-2</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>1.491316391329196E-2</v>
+        <v>-3.7768459537490348E-2</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>-3.0293671063084558E-3</v>
+        <v>1.491316391329196E-2</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <v>-2.7758483034999058E-3</v>
+        <v>-3.0293671063084558E-3</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <v>-1.1106545386936163E-2</v>
+        <v>-2.7758483034999058E-3</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <v>-2.1443154145540256E-2</v>
+        <v>-1.1106545386936163E-2</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <v>4.8353772554181164E-3</v>
+        <v>-2.1443154145540256E-2</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <v>3.4815295965153051E-2</v>
+        <v>4.8353772554181164E-3</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <v>-5.6703493108560825E-4</v>
+        <v>3.4815295965153051E-2</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <v>-9.8694376424351311E-3</v>
+        <v>-5.6703493108560825E-4</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
-        <v>3.8606236730453604E-3</v>
+        <v>-9.8694376424351311E-3</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
-        <v>-5.2062942856830217E-3</v>
+        <v>3.8606236730453604E-3</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <v>-1.9593699485327676E-2</v>
+        <v>-5.2062942856830217E-3</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <v>6.0496568088829862E-3</v>
+        <v>-1.9593699485327676E-2</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <v>-5.4292565298677429E-3</v>
+        <v>6.0496568088829862E-3</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <v>1.8558489032003144E-2</v>
+        <v>-5.4292565298677429E-3</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <v>3.8992690121279596E-3</v>
+        <v>1.8558489032003144E-2</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <v>2.196781221717359E-3</v>
+        <v>3.8992690121279596E-3</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
-        <v>2.1362156018123812E-2</v>
+        <v>2.196781221717359E-3</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
-        <v>-1.259813741816096E-3</v>
+        <v>2.1362156018123812E-2</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
-        <v>1.8304642113049673E-2</v>
+        <v>-1.259813741816096E-3</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
-        <v>9.6788950716508275E-3</v>
+        <v>1.8304642113049673E-2</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
-        <v>-6.5761597305236561E-3</v>
+        <v>9.6788950716508275E-3</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
-        <v>-1.6159928108874944E-2</v>
+        <v>-6.5761597305236561E-3</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
-        <v>1.8658471139657528E-2</v>
+        <v>-1.6159928108874944E-2</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
-        <v>5.7100621086735972E-3</v>
+        <v>1.8658471139657528E-2</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
-        <v>-5.229017035679284E-3</v>
+        <v>5.7100621086735972E-3</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
-        <v>5.1514459135708181E-3</v>
+        <v>-5.229017035679284E-3</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
-        <v>1.9914089450401917E-2</v>
+        <v>5.1514459135708181E-3</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
-        <v>3.0475858326290962E-4</v>
+        <v>1.9914089450401917E-2</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
-        <v>1.252653445334424E-2</v>
+        <v>3.0475858326290962E-4</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
-        <v>-1.1653295354632043E-2</v>
+        <v>1.252653445334424E-2</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
-        <v>-1.1860400611470468E-2</v>
+        <v>-1.1653295354632043E-2</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
-        <v>1.9774174508486907E-2</v>
+        <v>-1.1860400611470468E-2</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
-        <v>1.3415285090674089E-2</v>
+        <v>1.9774174508486907E-2</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
-        <v>-1.5832868071388618E-3</v>
+        <v>1.3415285090674089E-2</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
-        <v>-3.57616536006482E-3</v>
+        <v>-1.5832868071388618E-3</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
-        <v>1.0212830001177408E-2</v>
+        <v>-3.57616536006482E-3</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
-        <v>-8.7842373787186297E-3</v>
+        <v>1.0212830001177408E-2</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
-        <v>-3.0660755727712364E-2</v>
+        <v>-8.7842373787186297E-3</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
-        <v>-1.5928533834024706E-3</v>
+        <v>-3.0660755727712364E-2</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
-        <v>-1.2853233763905792E-3</v>
+        <v>-1.5928533834024706E-3</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
-        <v>1.1330153664827768E-2</v>
+        <v>-1.2853233763905792E-3</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
-        <v>1.2166400633068619E-3</v>
+        <v>1.1330153664827768E-2</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
-        <v>2.9925725422710946E-2</v>
+        <v>1.2166400633068619E-3</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
-        <v>3.7320232502795038E-3</v>
+        <v>2.9925725422710946E-2</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
-        <v>6.9961401552609105E-3</v>
+        <v>3.7320232502795038E-3</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
-        <v>1.2753785646871307E-2</v>
+        <v>6.9961401552609105E-3</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
-        <v>-3.7052984007146959E-3</v>
+        <v>1.2753785646871307E-2</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
-        <v>7.5537593967311524E-3</v>
+        <v>-3.7052984007146959E-3</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
-        <v>1.8735761485089774E-2</v>
+        <v>7.5537593967311524E-3</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
-        <v>6.4586683439708638E-3</v>
+        <v>1.8735761485089774E-2</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
-        <v>-1.1825033895399174E-2</v>
+        <v>6.4586683439708638E-3</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
-        <v>-1.4980927790322163E-2</v>
+        <v>-1.1825033895399174E-2</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
-        <v>1.4200943231820595E-2</v>
+        <v>-1.4980927790322163E-2</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
-        <v>1.0743913447332786E-2</v>
+        <v>1.4200943231820595E-2</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
-        <v>4.1397762150118924E-3</v>
+        <v>1.0743913447332786E-2</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
-        <v>-1.7009300465581845E-2</v>
+        <v>4.1397762150118924E-3</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
-        <v>2.3882508601156437E-2</v>
+        <v>-1.7009300465581845E-2</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
-        <v>6.4864063390697164E-4</v>
+        <v>2.3882508601156437E-2</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
-        <v>4.7341085751490654E-3</v>
+        <v>6.4864063390697164E-4</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
-        <v>-1.7606051223322972E-2</v>
+        <v>4.7341085751490654E-3</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
-        <v>-2.8473437214831419E-3</v>
+        <v>-1.7606051223322972E-2</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
-        <v>-2.1337042998263379E-2</v>
+        <v>-2.8473437214831419E-3</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
-        <v>-3.6629574260603091E-3</v>
+        <v>-2.1337042998263379E-2</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
-        <v>-2.3057929308601286E-3</v>
+        <v>-3.6629574260603091E-3</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
-        <v>1.8905572476419507E-2</v>
+        <v>-2.3057929308601286E-3</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
-        <v>-5.8361084583953724E-3</v>
+        <v>1.8905572476419507E-2</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
-        <v>-1.9815457042476224E-3</v>
+        <v>-5.8361084583953724E-3</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
-        <v>1.015565956573301E-2</v>
+        <v>-1.9815457042476224E-3</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
-        <v>2.2795253099570267E-2</v>
+        <v>1.015565956573301E-2</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
-        <v>-9.6045797289814779E-3</v>
+        <v>2.2795253099570267E-2</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
-        <v>3.3370430776570717E-2</v>
+        <v>-9.6045797289814779E-3</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
-        <v>1.4387090633985977E-2</v>
+        <v>3.3370430776570717E-2</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
-        <v>1.0562789616415104E-4</v>
+        <v>1.4387090633985977E-2</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
-        <v>-1.8715687436614382E-2</v>
+        <v>1.0562789616415104E-4</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
-        <v>1.0009300727405978E-2</v>
+        <v>-1.8715687436614382E-2</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
-        <v>1.1508984029186386E-2</v>
+        <v>1.0009300727405978E-2</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
-        <v>-1.3846892244878007E-3</v>
+        <v>1.1508984029186386E-2</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
-        <v>-3.4600738587229783E-3</v>
+        <v>-1.3846892244878007E-3</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
-        <v>-2.9459043303203637E-2</v>
+        <v>-3.4600738587229783E-3</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
-        <v>5.6861311190685273E-3</v>
+        <v>-2.9459043303203637E-2</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
-        <v>-1.6449860518408067E-2</v>
+        <v>5.6861311190685273E-3</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
-        <v>1.4110541801251663E-2</v>
+        <v>-1.6449860518408067E-2</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
-        <v>7.1705738906102214E-3</v>
+        <v>1.4110541801251663E-2</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
-        <v>-1.0851031516180321E-2</v>
+        <v>7.1705738906102214E-3</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
-        <v>1.6595959361648659E-2</v>
+        <v>-1.0851031516180321E-2</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
-        <v>2.2221386504057252E-3</v>
+        <v>1.6595959361648659E-2</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
-        <v>-2.7686771110715823E-3</v>
+        <v>2.2221386504057252E-3</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
-        <v>-6.5265770174212532E-3</v>
+        <v>-2.7686771110715823E-3</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
-        <v>7.6989249538279127E-3</v>
+        <v>-6.5265770174212532E-3</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
-        <v>-1.1711204459529157E-2</v>
+        <v>7.6989249538279127E-3</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
-        <v>-1.3765009958451202E-3</v>
+        <v>-1.1711204459529157E-2</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
-        <v>-2.4414378799296799E-2</v>
+        <v>-1.3765009958451202E-3</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
-        <v>-1.2985824058974239E-2</v>
+        <v>-2.4414378799296799E-2</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
-        <v>-7.6937975196749169E-4</v>
+        <v>-1.2985824058974239E-2</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
-        <v>-5.4118784296377951E-3</v>
+        <v>-7.6937975196749169E-4</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
-        <v>1.0109487738226796E-2</v>
+        <v>-5.4118784296377951E-3</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
-        <v>1.4764108704962985E-2</v>
+        <v>1.0109487738226796E-2</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
-        <v>-7.0392907094234407E-4</v>
+        <v>1.4764108704962985E-2</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
-        <v>7.6408387645667377E-3</v>
+        <v>-7.0392907094234407E-4</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
-        <v>5.1487943840662349E-4</v>
+        <v>7.6408387645667377E-3</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
-        <v>2.1315266169033186E-2</v>
+        <v>5.1487943840662349E-4</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
-        <v>1.1885530185757175E-2</v>
+        <v>2.1315266169033186E-2</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
-        <v>-7.9050697057585499E-4</v>
+        <v>1.1885530185757175E-2</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
-        <v>9.1486364507106892E-3</v>
+        <v>-7.9050697057585499E-4</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
-        <v>-7.3708296982067266E-3</v>
+        <v>9.1486364507106892E-3</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
-        <v>-1.0390930332000892E-3</v>
+        <v>-7.3708296982067266E-3</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
-        <v>3.1202366336648526E-3</v>
+        <v>-1.0390930332000892E-3</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
-        <v>5.9957722449281549E-3</v>
+        <v>3.1202366336648526E-3</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
-        <v>9.6105867037287844E-3</v>
+        <v>5.9957722449281549E-3</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
-        <v>5.221978187946519E-3</v>
+        <v>9.6105867037287844E-3</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
-        <v>1.65273678995554E-2</v>
+        <v>5.221978187946519E-3</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
-        <v>5.7155881022669776E-3</v>
+        <v>1.65273678995554E-2</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
-        <v>8.1687026026663993E-3</v>
+        <v>5.7155881022669776E-3</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
-        <v>-6.2244688500239674E-3</v>
+        <v>8.1687026026663993E-3</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
-        <v>1.574980537279309E-2</v>
+        <v>-6.2244688500239674E-3</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
-        <v>-8.542223387345161E-3</v>
+        <v>1.574980537279309E-2</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
-        <v>-2.7310050841258083E-2</v>
+        <v>-8.542223387345161E-3</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
-        <v>1.167537432397232E-2</v>
+        <v>-2.7310050841258083E-2</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
-        <v>4.3641844089680861E-3</v>
+        <v>1.167537432397232E-2</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
-        <v>-5.5090541755918208E-3</v>
+        <v>4.3641844089680861E-3</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
-        <v>2.1795338635152105E-2</v>
+        <v>-5.5090541755918208E-3</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
-        <v>-2.6681830994757403E-3</v>
+        <v>2.1795338635152105E-2</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
-        <v>1.3481462124969212E-2</v>
+        <v>-2.6681830994757403E-3</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
-        <v>-2.4850121249080813E-3</v>
+        <v>1.3481462124969212E-2</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
-        <v>-1.6910218007486755E-2</v>
+        <v>-2.4850121249080813E-3</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
-        <v>1.3885972539337387E-2</v>
+        <v>-1.6910218007486755E-2</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
-        <v>-3.1451112803846645E-2</v>
+        <v>1.3885972539337387E-2</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
-        <v>-1.4922350618273229E-2</v>
+        <v>-3.1451112803846645E-2</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
-        <v>-1.4414285328789234E-2</v>
+        <v>-1.4922350618273229E-2</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
-        <v>1.7500690714601318E-2</v>
+        <v>-1.4414285328789234E-2</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
-        <v>-2.1300997358889618E-2</v>
+        <v>1.7500690714601318E-2</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
-        <v>2.4573264964281093E-2</v>
+        <v>-2.1300997358889618E-2</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
-        <v>1.6975958326732154E-3</v>
+        <v>2.4573264964281093E-2</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
-        <v>2.3399016578798459E-2</v>
+        <v>1.6975958326732154E-3</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
-        <v>6.364125786296704E-3</v>
+        <v>2.3399016578798459E-2</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
-        <v>7.1043152765277286E-3</v>
+        <v>6.364125786296704E-3</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
-        <v>-7.8689169205794947E-3</v>
+        <v>7.1043152765277286E-3</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
-        <v>9.0558852006605399E-3</v>
+        <v>-7.8689169205794947E-3</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
-        <v>1.3151823494760961E-3</v>
+        <v>9.0558852006605399E-3</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
-        <v>9.0010633502750174E-3</v>
+        <v>1.3151823494760961E-3</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
-        <v>4.5168096219223132E-3</v>
+        <v>9.0010633502750174E-3</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
-        <v>-2.5737997068072003E-3</v>
+        <v>4.5168096219223132E-3</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
-        <v>5.2104218925503433E-3</v>
+        <v>-2.5737997068072003E-3</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
-        <v>-2.0029878516926659E-2</v>
+        <v>5.2104218925503433E-3</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
-        <v>6.1938158719058835E-3</v>
+        <v>-2.0029878516926659E-2</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
-        <v>7.68629558523255E-3</v>
+        <v>6.1938158719058835E-3</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
-        <v>-2.2780997660938596E-2</v>
+        <v>7.68629558523255E-3</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
-        <v>-7.1060341710802886E-3</v>
+        <v>-2.2780997660938596E-2</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
-        <v>-1.1087779452698499E-2</v>
+        <v>-7.1060341710802886E-3</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
-        <v>8.77430043747136E-3</v>
+        <v>-1.1087779452698499E-2</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
-        <v>2.5405054771221635E-2</v>
+        <v>8.77430043747136E-3</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
-        <v>1.7561058496823989E-3</v>
+        <v>2.5405054771221635E-2</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
-        <v>-2.4671834104211142E-3</v>
+        <v>1.7561058496823989E-3</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
-        <v>-7.1518442292077826E-4</v>
+        <v>-2.4671834104211142E-3</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
-        <v>1.7734127378769848E-2</v>
+        <v>-7.1518442292077826E-4</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
-        <v>-5.4239208229549972E-3</v>
+        <v>1.7734127378769848E-2</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
-        <v>2.4797569638064233E-4</v>
+        <v>-5.4239208229549972E-3</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
-        <v>8.1720406876153E-3</v>
+        <v>2.4797569638064233E-4</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
-        <v>-3.3195170973703723E-3</v>
+        <v>8.1720406876153E-3</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
-        <v>-1.5342925022253696E-2</v>
+        <v>-3.3195170973703723E-3</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
-        <v>-6.091243387864864E-3</v>
+        <v>-1.5342925022253696E-2</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
-        <v>2.1235654608705978E-2</v>
+        <v>-6.091243387864864E-3</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
-        <v>-3.3903136973554735E-3</v>
+        <v>2.1235654608705978E-2</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
-        <v>-1.9499545723150647E-2</v>
+        <v>-3.3903136973554735E-3</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
-        <v>-1.1222471213226549E-2</v>
+        <v>-1.9499545723150647E-2</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
-        <v>-1.5163632866389599E-2</v>
+        <v>-1.1222471213226549E-2</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
-        <v>9.0006686733953949E-3</v>
+        <v>-1.5163632866389599E-2</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
-        <v>-9.8439214591186548E-3</v>
+        <v>9.0006686733953949E-3</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
-        <v>5.8683074233487178E-3</v>
+        <v>-9.8439214591186548E-3</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
-        <v>2.7267199445143397E-2</v>
+        <v>5.8683074233487178E-3</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
-        <v>-2.5746674669935741E-3</v>
+        <v>2.7267199445143397E-2</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
-        <v>4.8048174806726964E-3</v>
+        <v>-2.5746674669935741E-3</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
-        <v>3.0849529777007946E-3</v>
+        <v>4.8048174806726964E-3</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
-        <v>1.4500269806694454E-2</v>
+        <v>3.0849529777007946E-3</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
-        <v>-5.3787798385032557E-3</v>
+        <v>1.4500269806694454E-2</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
-        <v>-1.0526976559319046E-2</v>
+        <v>-5.3787798385032557E-3</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
-        <v>3.8854088944779265E-3</v>
+        <v>-1.0526976559319046E-2</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
-        <v>-1.6327385267982209E-2</v>
+        <v>3.8854088944779265E-3</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
-        <v>5.2090300493603083E-3</v>
+        <v>-1.6327385267982209E-2</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
-        <v>-2.1482976241875385E-2</v>
+        <v>5.2090300493603083E-3</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
-        <v>-2.3918042548947581E-3</v>
+        <v>-2.1482976241875385E-2</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
-        <v>1.9118075137417988E-2</v>
+        <v>-2.3918042548947581E-3</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
-        <v>2.9664905806676247E-3</v>
+        <v>1.9118075137417988E-2</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
-        <v>-1.6364690449868036E-2</v>
+        <v>2.9664905806676247E-3</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
-        <v>2.6717483177415959E-3</v>
+        <v>-1.6364690449868036E-2</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
-        <v>-2.0062090459623148E-3</v>
+        <v>2.6717483177415959E-3</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
-        <v>1.7509142285821965E-2</v>
+        <v>-2.0062090459623148E-3</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
-        <v>-3.1080742481551125E-3</v>
+        <v>1.7509142285821965E-2</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
-        <v>1.980209083014728E-3</v>
+        <v>-3.1080742481551125E-3</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
-        <v>9.1908877760522138E-3</v>
+        <v>1.980209083014728E-3</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
-        <v>-3.281191415860185E-3</v>
+        <v>9.1908877760522138E-3</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
-        <v>1.5167839849256736E-3</v>
+        <v>-3.281191415860185E-3</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
-        <v>1.6288965543371958E-2</v>
+        <v>1.5167839849256736E-3</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
-        <v>1.2262806550300098E-3</v>
+        <v>1.6288965543371958E-2</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
-        <v>-3.7110513274479116E-3</v>
+        <v>1.2262806550300098E-3</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
-        <v>1.1840575373495809E-3</v>
+        <v>-3.7110513274479116E-3</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
-        <v>1.9602748118806978E-2</v>
+        <v>1.1840575373495809E-3</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
-        <v>4.4105146875390135E-3</v>
+        <v>1.9602748118806978E-2</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
-        <v>9.3566234243171557E-3</v>
+        <v>4.4105146875390135E-3</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
-        <v>1.033770359799142E-2</v>
+        <v>9.3566234243171557E-3</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
-        <v>-6.8338855085421811E-3</v>
+        <v>1.033770359799142E-2</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
-        <v>1.1375103854673618E-2</v>
+        <v>-6.8338855085421811E-3</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
-        <v>-7.7573207309329815E-3</v>
+        <v>1.1375103854673618E-2</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
-        <v>6.5158859952491712E-3</v>
+        <v>-7.7573207309329815E-3</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
-        <v>-1.4383107832276921E-3</v>
+        <v>6.5158859952491712E-3</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
-        <v>1.4302130687583414E-2</v>
+        <v>-1.4383107832276921E-3</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
-        <v>3.0403113393255412E-3</v>
+        <v>1.4302130687583414E-2</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
-        <v>-3.0446266930333364E-3</v>
+        <v>3.0403113393255412E-3</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
-        <v>-1.1467830583747052E-2</v>
+        <v>-3.0446266930333364E-3</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
-        <v>1.8241026799669768E-3</v>
+        <v>-1.1467830583747052E-2</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
-        <v>1.3540961380701332E-2</v>
+        <v>1.8241026799669768E-3</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
-        <v>-1.8168030347814047E-2</v>
+        <v>1.3540961380701332E-2</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
-        <v>-1.891054190143553E-2</v>
+        <v>-1.8168030347814047E-2</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
-        <v>-4.8762966197813283E-3</v>
+        <v>-1.891054190143553E-2</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
-        <v>-1.4729919741316877E-3</v>
+        <v>-4.8762966197813283E-3</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
-        <v>-1.9198261070208389E-3</v>
+        <v>-1.4729919741316877E-3</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
-        <v>1.0152750606524207E-3</v>
+        <v>-1.9198261070208389E-3</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
-        <v>-2.599050100878646E-2</v>
+        <v>1.0152750606524207E-3</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
-        <v>2.2205655464057729E-3</v>
+        <v>-2.599050100878646E-2</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
-        <v>2.1304231593157929E-2</v>
+        <v>2.2205655464057729E-3</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
-        <v>-2.1348440836577607E-3</v>
+        <v>2.1304231593157929E-2</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
-        <v>6.6707385544965804E-3</v>
+        <v>-2.1348440836577607E-3</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
-        <v>6.4144010634789696E-3</v>
+        <v>6.6707385544965804E-3</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
-        <v>-8.1771186934316738E-3</v>
+        <v>6.4144010634789696E-3</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
-        <v>-1.0182972371166877E-2</v>
+        <v>-8.1771186934316738E-3</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
-        <v>1.2494481321756189E-2</v>
+        <v>-1.0182972371166877E-2</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
-        <v>-2.3336072627778036E-3</v>
+        <v>1.2494481321756189E-2</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
-        <v>-1.5269014672019843E-2</v>
+        <v>-2.3336072627778036E-3</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
-        <v>-4.3993252562939842E-3</v>
+        <v>-1.5269014672019843E-2</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
-        <v>-1.5501252453320725E-2</v>
+        <v>-4.3993252562939842E-3</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
-        <v>-1.5034364464153072E-3</v>
+        <v>-1.5501252453320725E-2</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
-        <v>8.2413887037635185E-3</v>
+        <v>-1.5034364464153072E-3</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
-        <v>4.2625352905655946E-3</v>
+        <v>8.2413887037635185E-3</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
-        <v>-1.8206780909693521E-3</v>
+        <v>4.2625352905655946E-3</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
-        <v>1.3223536716691697E-2</v>
+        <v>-1.8206780909693521E-3</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
-        <v>-9.3260215218158755E-3</v>
+        <v>1.3223536716691697E-2</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
-        <v>-3.5554224011738354E-3</v>
+        <v>-9.3260215218158755E-3</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
-        <v>1.0172982245568462E-2</v>
+        <v>-3.5554224011738354E-3</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
-        <v>-4.113142774455447E-3</v>
+        <v>1.0172982245568462E-2</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
-        <v>-1.9622249245457902E-2</v>
+        <v>-4.113142774455447E-3</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
-        <v>-7.270120063067864E-3</v>
+        <v>-1.9622249245457902E-2</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
-        <v>-1.6131460937238985E-2</v>
+        <v>-7.270120063067864E-3</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
-        <v>-1.083525675747481E-2</v>
+        <v>-1.6131460937238985E-2</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
-        <v>2.0324969589952068E-2</v>
+        <v>-1.083525675747481E-2</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
-        <v>-2.3674162914919351E-2</v>
+        <v>2.0324969589952068E-2</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
-        <v>1.5371774818843775E-3</v>
+        <v>-2.3674162914919351E-2</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
-        <v>1.6712856247338159E-2</v>
+        <v>1.5371774818843775E-3</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
-        <v>-7.737338877443811E-3</v>
+        <v>1.6712856247338159E-2</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
-        <v>-1.1725180255673529E-2</v>
+        <v>-7.737338877443811E-3</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
-        <v>-1.6346122178676304E-2</v>
+        <v>-1.1725180255673529E-2</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
-        <v>-4.7168736151020239E-3</v>
+        <v>-1.6346122178676304E-2</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
-        <v>3.563352487979188E-3</v>
+        <v>-4.7168736151020239E-3</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
-        <v>2.9298212948035206E-2</v>
+        <v>3.563352487979188E-3</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
-        <v>-4.1080795012343073E-3</v>
+        <v>2.9298212948035206E-2</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
-        <v>1.6003790465833844E-2</v>
+        <v>-4.1080795012343073E-3</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
-        <v>3.5700730773566393E-3</v>
+        <v>1.6003790465833844E-2</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
-        <v>-3.6759295825888215E-3</v>
+        <v>3.5700730773566393E-3</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
-        <v>9.9043666475415286E-3</v>
+        <v>-3.6759295825888215E-3</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
-        <v>2.0240298647214949E-2</v>
+        <v>9.9043666475415286E-3</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
-        <v>1.0146680312480959E-2</v>
+        <v>2.0240298647214949E-2</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
-        <v>-9.7540844053083837E-3</v>
+        <v>1.0146680312480959E-2</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
-        <v>-5.1673735367037564E-3</v>
+        <v>-9.7540844053083837E-3</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
-        <v>8.2003074136345329E-4</v>
+        <v>-5.1673735367037564E-3</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
-        <v>5.652164569745999E-3</v>
+        <v>8.2003074136345329E-4</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
-        <v>-1.7754238849457416E-2</v>
+        <v>5.652164569745999E-3</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
-        <v>-3.0463724747098906E-3</v>
+        <v>-1.7754238849457416E-2</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
-        <v>-1.173082643928396E-2</v>
+        <v>-3.0463724747098906E-3</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
-        <v>-3.6834785606075114E-3</v>
+        <v>-1.173082643928396E-2</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
-        <v>1.1828656091435973E-2</v>
+        <v>-3.6834785606075114E-3</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
-        <v>-2.1372469089737046E-2</v>
+        <v>1.1828656091435973E-2</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
-        <v>8.0883088652090145E-3</v>
+        <v>-2.1372469089737046E-2</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
-        <v>1.8041679078051941E-2</v>
+        <v>8.0883088652090145E-3</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
-        <v>7.7925325487868237E-3</v>
+        <v>1.8041679078051941E-2</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
-        <v>-6.8291670794724977E-3</v>
+        <v>7.7925325487868237E-3</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
-        <v>-2.5506923187233353E-3</v>
+        <v>-6.8291670794724977E-3</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
-        <v>-2.1844661312945313E-2</v>
+        <v>-2.5506923187233353E-3</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
-        <v>-1.6048420847185874E-2</v>
+        <v>-2.1844661312945313E-2</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
-        <v>-2.0385317544288562E-2</v>
+        <v>-1.6048420847185874E-2</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
-        <v>9.1578584416469148E-3</v>
+        <v>-2.0385317544288562E-2</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
-        <v>5.580739558509862E-3</v>
+        <v>9.1578584416469148E-3</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
-        <v>3.0032447999259306E-3</v>
+        <v>5.580739558509862E-3</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
-        <v>-1.0489985531789082E-2</v>
+        <v>3.0032447999259306E-3</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
-        <v>-1.0727019426644269E-2</v>
+        <v>-1.0489985531789082E-2</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
-        <v>-1.1945593275228639E-2</v>
+        <v>-1.0727019426644269E-2</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
-        <v>1.7969122204788589E-2</v>
+        <v>-1.1945593275228639E-2</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
-        <v>-3.4536210432943191E-3</v>
+        <v>1.7969122204788589E-2</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
-        <v>-2.3831977942627701E-4</v>
+        <v>-3.4536210432943191E-3</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
-        <v>-1.1839454379188475E-2</v>
+        <v>-2.3831977942627701E-4</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
-        <v>-1.5072081551039496E-2</v>
+        <v>-1.1839454379188475E-2</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
-        <v>1.0756120157880921E-2</v>
+        <v>-1.5072081551039496E-2</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
-        <v>-2.823899485669301E-4</v>
+        <v>1.0756120157880921E-2</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
-        <v>-1.2995223538537104E-3</v>
+        <v>-2.823899485669301E-4</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
-        <v>7.6725527192397893E-3</v>
+        <v>-1.2995223538537104E-3</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
-        <v>5.212386414099335E-3</v>
+        <v>7.6725527192397893E-3</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
-        <v>2.0971251200274387E-2</v>
+        <v>5.212386414099335E-3</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
-        <v>5.3695998962714599E-3</v>
+        <v>2.0971251200274387E-2</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
-        <v>3.7496907938844972E-3</v>
+        <v>5.3695998962714599E-3</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
-        <v>6.613161672481382E-4</v>
+        <v>3.7496907938844972E-3</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
-        <v>1.5595990189469333E-3</v>
+        <v>6.613161672481382E-4</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
-        <v>-1.3663491240814452E-3</v>
+        <v>1.5595990189469333E-3</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
-        <v>-1.501162208243283E-2</v>
+        <v>-1.3663491240814452E-3</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
-        <v>8.8557194358333639E-3</v>
+        <v>-1.501162208243283E-2</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
-        <v>2.0537967928075673E-2</v>
+        <v>8.8557194358333639E-3</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
-        <v>9.7232093683814465E-4</v>
+        <v>2.0537967928075673E-2</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
-        <v>-1.6869181663926192E-2</v>
+        <v>9.7232093683814465E-4</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
-        <v>4.1742589478374727E-3</v>
+        <v>-1.6869181663926192E-2</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
-        <v>-1.5520506923808953E-2</v>
+        <v>4.1742589478374727E-3</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
-        <v>1.2449495338526084E-2</v>
+        <v>-1.5520506923808953E-2</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
-        <v>8.5023664015899665E-4</v>
+        <v>1.2449495338526084E-2</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
-        <v>-7.7799194045338636E-3</v>
+        <v>8.5023664015899665E-4</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
-        <v>1.0746116412684969E-3</v>
+        <v>-7.7799194045338636E-3</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
-        <v>-6.7024411490031353E-3</v>
+        <v>1.0746116412684969E-3</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
-        <v>9.4966742980481904E-3</v>
+        <v>-6.7024411490031353E-3</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A458" s="1">
-        <v>1.289785282276874E-2</v>
+        <v>9.4966742980481904E-3</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
-        <v>-3.1473035448080109E-3</v>
+        <v>1.289785282276874E-2</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
-        <v>4.4329435138436681E-3</v>
+        <v>-3.1473035448080109E-3</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
-        <v>-3.2601689327325543E-3</v>
+        <v>4.4329435138436681E-3</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
-        <v>6.9862266654096674E-3</v>
+        <v>-3.2601689327325543E-3</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
-        <v>5.8329475174014435E-3</v>
+        <v>6.9862266654096674E-3</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
-        <v>-1.6335846921218079E-2</v>
+        <v>5.8329475174014435E-3</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
-        <v>-4.8872576907628583E-3</v>
+        <v>-1.6335846921218079E-2</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
-        <v>-2.2245499682758841E-2</v>
+        <v>-4.8872576907628583E-3</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
-        <v>8.8197380912653496E-4</v>
+        <v>-2.2245499682758841E-2</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
-        <v>-1.6235820242479982E-2</v>
+        <v>8.8197380912653496E-4</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A469" s="1">
-        <v>5.2060654525993401E-3</v>
+        <v>-1.6235820242479982E-2</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
-        <v>-5.3132604900854473E-3</v>
+        <v>5.2060654525993401E-3</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A471" s="1">
-        <v>-3.1861407958169606E-3</v>
+        <v>-5.3132604900854473E-3</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A472" s="1">
-        <v>-9.191574454096952E-3</v>
+        <v>-3.1861407958169606E-3</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
-        <v>-1.6006679430347504E-3</v>
+        <v>-9.191574454096952E-3</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
-        <v>-1.604197306429871E-2</v>
+        <v>-1.6006679430347504E-3</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
-        <v>-1.0576315325554474E-4</v>
+        <v>-1.604197306429871E-2</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A476" s="1">
-        <v>1.7024245176895113E-2</v>
+        <v>-1.0576315325554474E-4</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A477" s="1">
-        <v>-2.2992170895075149E-2</v>
+        <v>1.7024245176895113E-2</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A478" s="1">
-        <v>7.3399528193613508E-3</v>
+        <v>-2.2992170895075149E-2</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A479" s="1">
-        <v>-2.1852519743924149E-2</v>
+        <v>7.3399528193613508E-3</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A480" s="1">
-        <v>-5.9276002123256786E-3</v>
+        <v>-2.1852519743924149E-2</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
-        <v>1.5757415479809644E-2</v>
+        <v>-5.9276002123256786E-3</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A482" s="1">
-        <v>-6.2832606453076421E-3</v>
+        <v>1.5757415479809644E-2</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A483" s="1">
-        <v>1.1728086649438651E-2</v>
+        <v>-6.2832606453076421E-3</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
-        <v>2.8767843965830766E-3</v>
+        <v>1.1728086649438651E-2</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A485" s="1">
-        <v>2.0362159326341002E-3</v>
+        <v>2.8767843965830766E-3</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A486" s="1">
-        <v>-1.7884222140353501E-2</v>
+        <v>2.0362159326341002E-3</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A487" s="1">
-        <v>-2.8143656612245492E-3</v>
+        <v>-1.7884222140353501E-2</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A488" s="1">
-        <v>-1.8652130951135427E-2</v>
+        <v>-2.8143656612245492E-3</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A489" s="1">
-        <v>-2.5333854566984827E-2</v>
+        <v>-1.8652130951135427E-2</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A490" s="1">
-        <v>-1.7338547898358315E-3</v>
+        <v>-2.5333854566984827E-2</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A491" s="1">
-        <v>1.8543974654154204E-2</v>
+        <v>-1.7338547898358315E-3</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A492" s="1">
-        <v>-1.5103158738941681E-2</v>
+        <v>1.8543974654154204E-2</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A493" s="1">
-        <v>-1.7401152808830745E-2</v>
+        <v>-1.5103158738941681E-2</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A494" s="1">
-        <v>2.2285859508281549E-3</v>
+        <v>-1.7401152808830745E-2</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A495" s="1">
-        <v>1.4007788585389491E-2</v>
+        <v>2.2285859508281549E-3</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A496" s="1">
-        <v>6.4698944818275097E-3</v>
+        <v>1.4007788585389491E-2</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A497" s="1">
-        <v>1.9453237566921366E-2</v>
+        <v>6.4698944818275097E-3</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A498" s="1">
-        <v>-6.7550560161640403E-3</v>
+        <v>1.9453237566921366E-2</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A499" s="1">
-        <v>9.4460504940540695E-3</v>
+        <v>-6.7550560161640403E-3</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A500" s="1">
-        <v>-9.6900160789381562E-5</v>
+        <v>9.4460504940540695E-3</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A501" s="1">
-        <v>-1.4516710484214102E-3</v>
+        <v>-9.6900160789381562E-5</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A502" s="1">
-        <v>1.2422790324764853E-2</v>
+        <v>-1.4516710484214102E-3</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A503" s="1">
-        <v>-4.6675315293772E-3</v>
+        <v>1.2422790324764853E-2</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A504" s="1">
-        <v>4.4699446003210854E-3</v>
+        <v>-4.6675315293772E-3</v>
       </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A505" s="1">
-        <v>-1.4310166759082855E-2</v>
+        <v>4.4699446003210854E-3</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A506" s="1">
-        <v>4.0949322369616682E-4</v>
+        <v>-1.4310166759082855E-2</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A507" s="1">
-        <v>6.2080116684930077E-3</v>
+        <v>4.0949322369616682E-4</v>
       </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A508" s="1">
-        <v>1.189694410092219E-2</v>
+        <v>6.2080116684930077E-3</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A509" s="1">
-        <v>-1.6040375452096179E-2</v>
+        <v>1.189694410092219E-2</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A510" s="1">
-        <v>7.1378043138825122E-3</v>
+        <v>-1.6040375452096179E-2</v>
       </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A511" s="1">
-        <v>-4.7372641947889703E-3</v>
+        <v>7.1378043138825122E-3</v>
       </c>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A512" s="1">
-        <v>9.7529272913796199E-3</v>
+        <v>-4.7372641947889703E-3</v>
       </c>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A513" s="1">
-        <v>1.2636613488309755E-2</v>
+        <v>9.7529272913796199E-3</v>
       </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A514" s="1">
-        <v>7.9807239452424732E-3</v>
+        <v>1.2636613488309755E-2</v>
       </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A515" s="1">
-        <v>2.1575078844239927E-3</v>
+        <v>7.9807239452424732E-3</v>
       </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A516" s="1">
-        <v>-1.0372645343351295E-2</v>
+        <v>2.1575078844239927E-3</v>
       </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A517" s="1">
-        <v>3.5115293885105816E-3</v>
+        <v>-1.0372645343351295E-2</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A518" s="1">
-        <v>2.6846140027034339E-3</v>
+        <v>3.5115293885105816E-3</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A519" s="1">
-        <v>-1.5248964544445798E-3</v>
+        <v>2.6846140027034339E-3</v>
       </c>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A520" s="1">
-        <v>6.3805255385453565E-3</v>
+        <v>-1.5248964544445798E-3</v>
       </c>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A521" s="1">
-        <v>-1.9101967858209435E-2</v>
+        <v>6.3805255385453565E-3</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A522" s="1">
-        <v>-8.5048896092665405E-5</v>
+        <v>-1.9101967858209435E-2</v>
       </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A523" s="1">
-        <v>-4.1578062162191285E-3</v>
+        <v>-8.5048896092665405E-5</v>
       </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A524" s="1">
-        <v>-1.0949968394033328E-2</v>
+        <v>-4.1578062162191285E-3</v>
       </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A525" s="1">
-        <v>4.8901451472202597E-3</v>
+        <v>-1.0949968394033328E-2</v>
       </c>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A526" s="1">
-        <v>1.2323610471107926E-2</v>
+        <v>4.8901451472202597E-3</v>
       </c>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A527" s="1">
-        <v>1.0632333480062428E-3</v>
+        <v>1.2323610471107926E-2</v>
       </c>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A528" s="1">
-        <v>2.3165212411612578E-2</v>
+        <v>1.0632333480062428E-3</v>
       </c>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A529" s="1">
-        <v>4.7712387814017989E-3</v>
+        <v>2.3165212411612578E-2</v>
       </c>
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A530" s="1">
-        <v>1.1197351112388176E-3</v>
+        <v>4.7712387814017989E-3</v>
       </c>
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A531" s="1">
-        <v>7.4435384701329712E-3</v>
+        <v>1.1197351112388176E-3</v>
       </c>
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A532" s="1">
-        <v>-1.1952933776412423E-2</v>
+        <v>7.4435384701329712E-3</v>
       </c>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A533" s="1">
-        <v>-1.5227344203544036E-2</v>
+        <v>-1.1952933776412423E-2</v>
       </c>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A534" s="1">
-        <v>4.1009533979574188E-3</v>
+        <v>-1.5227344203544036E-2</v>
       </c>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A535" s="1">
-        <v>-2.3298289294382711E-3</v>
+        <v>4.1009533979574188E-3</v>
       </c>
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A536" s="1">
-        <v>-2.8798809862829343E-3</v>
+        <v>-2.3298289294382711E-3</v>
       </c>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A537" s="1">
-        <v>-9.6258867049241921E-3</v>
+        <v>-2.8798809862829343E-3</v>
       </c>
     </row>
     <row r="538" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A538" s="1">
-        <v>3.979381102715074E-3</v>
+        <v>-9.6258867049241921E-3</v>
       </c>
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A539" s="1">
-        <v>1.2537478604850171E-2</v>
+        <v>3.979381102715074E-3</v>
       </c>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A540" s="1">
-        <v>-7.5248797274499067E-3</v>
+        <v>1.2537478604850171E-2</v>
       </c>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A541" s="1">
-        <v>4.7564219427906453E-3</v>
+        <v>-7.5248797274499067E-3</v>
       </c>
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A542" s="1">
-        <v>1.0159586572268963E-2</v>
+        <v>4.7564219427906453E-3</v>
       </c>
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A543" s="1">
-        <v>-2.0360129893447088E-2</v>
+        <v>1.0159586572268963E-2</v>
       </c>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A544" s="1">
-        <v>-1.0413306273873602E-3</v>
+        <v>-2.0360129893447088E-2</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A545" s="1">
-        <v>7.2098767753534078E-3</v>
+        <v>-1.0413306273873602E-3</v>
       </c>
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A546" s="1">
-        <v>2.0668808222877821E-2</v>
+        <v>7.2098767753534078E-3</v>
       </c>
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A547" s="1">
-        <v>2.4477500548194088E-3</v>
+        <v>2.0668808222877821E-2</v>
       </c>
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A548" s="1">
-        <v>-8.4647174324796741E-4</v>
+        <v>2.4477500548194088E-3</v>
       </c>
     </row>
     <row r="549" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A549" s="1">
-        <v>2.0010558648364098E-3</v>
+        <v>-8.4647174324796741E-4</v>
       </c>
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A550" s="1">
-        <v>2.0151340351130644E-3</v>
+        <v>2.0010558648364098E-3</v>
       </c>
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A551" s="1">
-        <v>9.329930161488597E-3</v>
+        <v>2.0151340351130644E-3</v>
       </c>
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A552" s="1">
-        <v>9.1162929940830743E-3</v>
+        <v>9.329930161488597E-3</v>
       </c>
     </row>
     <row r="553" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A553" s="1">
-        <v>7.0703415087180589E-3</v>
+        <v>9.1162929940830743E-3</v>
       </c>
     </row>
     <row r="554" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A554" s="1">
-        <v>-3.1476684283475719E-4</v>
+        <v>7.0703415087180589E-3</v>
       </c>
     </row>
     <row r="555" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A555" s="1">
-        <v>1.5319416874197244E-3</v>
+        <v>-3.1476684283475719E-4</v>
       </c>
     </row>
     <row r="556" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A556" s="1">
-        <v>-4.7680457283998832E-3</v>
+        <v>1.5319416874197244E-3</v>
       </c>
     </row>
     <row r="557" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A557" s="1">
-        <v>1.2575923323227833E-2</v>
+        <v>-4.7680457283998832E-3</v>
       </c>
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A558" s="1">
-        <v>1.1142818734588288E-2</v>
+        <v>1.2575923323227833E-2</v>
       </c>
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A559" s="1">
-        <v>3.7203848953543785E-3</v>
+        <v>1.1142818734588288E-2</v>
       </c>
     </row>
     <row r="560" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A560" s="1">
-        <v>-7.8816745520018834E-3</v>
+        <v>3.7203848953543785E-3</v>
       </c>
     </row>
     <row r="561" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A561" s="1">
-        <v>9.6139451077396736E-3</v>
+        <v>-7.8816745520018834E-3</v>
       </c>
     </row>
     <row r="562" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A562" s="1">
-        <v>1.7216186318586679E-3</v>
+        <v>9.6139451077396736E-3</v>
       </c>
     </row>
     <row r="563" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A563" s="1">
-        <v>-1.6587252141411924E-2</v>
+        <v>1.7216186318586679E-3</v>
       </c>
     </row>
     <row r="564" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A564" s="1">
-        <v>6.5402743269677545E-3</v>
+        <v>-1.6587252141411924E-2</v>
       </c>
     </row>
     <row r="565" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A565" s="1">
-        <v>-9.0330139681675807E-4</v>
+        <v>6.5402743269677545E-3</v>
       </c>
     </row>
     <row r="566" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A566" s="1">
-        <v>8.2558707111452627E-3</v>
+        <v>-9.0330139681675807E-4</v>
       </c>
     </row>
     <row r="567" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A567" s="1">
-        <v>-7.3793249448055325E-4</v>
+        <v>8.2558707111452627E-3</v>
       </c>
     </row>
     <row r="568" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A568" s="1">
-        <v>1.8616385178804151E-3</v>
+        <v>-7.3793249448055325E-4</v>
       </c>
     </row>
     <row r="569" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A569" s="1">
-        <v>-5.2530867039182636E-3</v>
+        <v>1.8616385178804151E-3</v>
       </c>
     </row>
     <row r="570" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A570" s="1">
-        <v>1.9094446732678527E-2</v>
+        <v>-5.2530867039182636E-3</v>
       </c>
     </row>
     <row r="571" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A571" s="1">
-        <v>2.0274843291653967E-3</v>
+        <v>1.9094446732678527E-2</v>
       </c>
     </row>
     <row r="572" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A572" s="1">
-        <v>1.5790960356840244E-3</v>
+        <v>2.0274843291653967E-3</v>
       </c>
     </row>
     <row r="573" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A573" s="1">
-        <v>1.0637189729775897E-3</v>
+        <v>1.5790960356840244E-3</v>
       </c>
     </row>
     <row r="574" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A574" s="1">
-        <v>-1.7621820540600731E-2</v>
+        <v>1.0637189729775897E-3</v>
       </c>
     </row>
     <row r="575" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A575" s="1">
-        <v>4.933180793063663E-3</v>
+        <v>-1.7621820540600731E-2</v>
       </c>
     </row>
     <row r="576" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A576" s="1">
-        <v>8.9626893109002732E-4</v>
+        <v>4.933180793063663E-3</v>
       </c>
     </row>
     <row r="577" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A577" s="1">
-        <v>-9.0841233729204167E-4</v>
+        <v>8.9626893109002732E-4</v>
       </c>
     </row>
     <row r="578" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A578" s="1">
-        <v>9.0876634863549903E-3</v>
+        <v>-9.0841233729204167E-4</v>
       </c>
     </row>
     <row r="579" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A579" s="1">
-        <v>4.7974255741307205E-3</v>
+        <v>9.0876634863549903E-3</v>
       </c>
     </row>
     <row r="580" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A580" s="1">
-        <v>7.871409941683893E-4</v>
+        <v>4.7974255741307205E-3</v>
       </c>
     </row>
     <row r="581" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A581" s="1">
-        <v>-8.0793367657399535E-3</v>
+        <v>7.871409941683893E-4</v>
       </c>
     </row>
     <row r="582" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A582" s="1">
-        <v>-5.5820152126420551E-3</v>
+        <v>-8.0793367657399535E-3</v>
       </c>
     </row>
     <row r="583" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A583" s="1">
-        <v>-3.9150339063674265E-3</v>
+        <v>-5.5820152126420551E-3</v>
       </c>
     </row>
     <row r="584" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A584" s="1">
-        <v>1.0312133061566264E-2</v>
+        <v>-3.9150339063674265E-3</v>
       </c>
     </row>
     <row r="585" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A585" s="1">
-        <v>2.3744720387563591E-3</v>
+        <v>1.0312133061566264E-2</v>
       </c>
     </row>
     <row r="586" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A586" s="1">
-        <v>1.1961469583818384E-3</v>
+        <v>2.3744720387563591E-3</v>
       </c>
     </row>
     <row r="587" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A587" s="1">
-        <v>-3.4333035367380303E-3</v>
+        <v>1.1961469583818384E-3</v>
       </c>
     </row>
     <row r="588" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A588" s="1">
-        <v>1.0139550360262106E-2</v>
+        <v>-3.4333035367380303E-3</v>
       </c>
     </row>
     <row r="589" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A589" s="1">
-        <v>-5.5406733098610776E-4</v>
+        <v>1.0139550360262106E-2</v>
       </c>
     </row>
     <row r="590" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A590" s="1">
-        <v>1.485415234096621E-4</v>
+        <v>-5.5406733098610776E-4</v>
       </c>
     </row>
     <row r="591" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A591" s="1">
-        <v>-1.7989709869244308E-3</v>
+        <v>1.485415234096621E-4</v>
       </c>
     </row>
     <row r="592" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A592" s="1">
-        <v>-1.1230395530251337E-2</v>
+        <v>-1.7989709869244308E-3</v>
       </c>
     </row>
     <row r="593" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A593" s="1">
-        <v>-2.1260922732600208E-2</v>
+        <v>-1.1230395530251337E-2</v>
       </c>
     </row>
     <row r="594" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A594" s="1">
-        <v>-8.3828184043149186E-3</v>
+        <v>-2.1260922732600208E-2</v>
       </c>
     </row>
     <row r="595" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A595" s="1">
-        <v>-1.0599205730306594E-3</v>
+        <v>-8.3828184043149186E-3</v>
       </c>
     </row>
     <row r="596" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A596" s="1">
-        <v>-1.1320881000090211E-3</v>
+        <v>-1.0599205730306594E-3</v>
       </c>
     </row>
     <row r="597" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A597" s="1">
-        <v>3.5612585873352033E-3</v>
+        <v>-1.1320881000090211E-3</v>
       </c>
     </row>
     <row r="598" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A598" s="1">
-        <v>-8.8084369627948085E-3</v>
+        <v>3.5612585873352033E-3</v>
       </c>
     </row>
     <row r="599" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A599" s="1">
-        <v>5.7218804096851985E-3</v>
+        <v>-8.8084369627948085E-3</v>
       </c>
     </row>
     <row r="600" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A600" s="1">
-        <v>-1.1021553176398236E-2</v>
+        <v>5.7218804096851985E-3</v>
       </c>
     </row>
     <row r="601" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A601" s="1">
-        <v>7.8776684805765378E-3</v>
+        <v>-1.1021553176398236E-2</v>
       </c>
     </row>
     <row r="602" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A602" s="1">
-        <v>8.1790461692660792E-3</v>
+        <v>7.8776684805765378E-3</v>
       </c>
     </row>
     <row r="603" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A603" s="1">
-        <v>-1.5994797321749844E-2</v>
+        <v>8.1790461692660792E-3</v>
       </c>
     </row>
     <row r="604" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A604" s="1">
-        <v>-1.392018492165974E-2</v>
+        <v>-1.5994797321749844E-2</v>
       </c>
     </row>
     <row r="605" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A605" s="1">
-        <v>-6.1577776747608224E-3</v>
+        <v>-1.392018492165974E-2</v>
       </c>
     </row>
     <row r="606" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A606" s="1">
-        <v>-1.3116080592550362E-2</v>
+        <v>-6.1577776747608224E-3</v>
       </c>
     </row>
     <row r="607" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A607" s="1">
-        <v>5.1182169018153091E-3</v>
+        <v>-1.3116080592550362E-2</v>
       </c>
     </row>
     <row r="608" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A608" s="1">
-        <v>1.239110112891879E-2</v>
+        <v>5.1182169018153091E-3</v>
       </c>
     </row>
     <row r="609" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A609" s="1">
-        <v>5.1132059100744709E-5</v>
+        <v>1.239110112891879E-2</v>
       </c>
     </row>
     <row r="610" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A610" s="1">
-        <v>-6.0117788843896845E-3</v>
+        <v>5.1132059100744709E-5</v>
       </c>
     </row>
     <row r="611" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A611" s="1">
-        <v>1.2504808690473723E-2</v>
+        <v>-6.0117788843896845E-3</v>
       </c>
     </row>
     <row r="612" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A612" s="1">
-        <v>2.5783936845604318E-3</v>
+        <v>1.2504808690473723E-2</v>
       </c>
     </row>
     <row r="613" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A613" s="1">
-        <v>2.6028831890593908E-3</v>
+        <v>2.5783936845604318E-3</v>
       </c>
     </row>
     <row r="614" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A614" s="1">
-        <v>-8.8971690019768353E-3</v>
+        <v>2.6028831890593908E-3</v>
       </c>
     </row>
     <row r="615" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A615" s="1">
-        <v>1.3538211482655171E-2</v>
+        <v>-8.8971690019768353E-3</v>
       </c>
     </row>
     <row r="616" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A616" s="1">
-        <v>-2.6881173110842481E-3</v>
+        <v>1.3538211482655171E-2</v>
       </c>
     </row>
     <row r="617" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A617" s="1">
-        <v>1.7641118176367598E-3</v>
+        <v>-2.6881173110842481E-3</v>
       </c>
     </row>
     <row r="618" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A618" s="1">
-        <v>-1.6958158687512537E-2</v>
+        <v>1.7641118176367598E-3</v>
       </c>
     </row>
     <row r="619" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A619" s="1">
-        <v>-1.9887159842095769E-4</v>
+        <v>-1.6958158687512537E-2</v>
       </c>
     </row>
     <row r="620" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A620" s="1">
-        <v>1.0943192725308037E-2</v>
+        <v>-1.9887159842095769E-4</v>
       </c>
     </row>
     <row r="621" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A621" s="1">
-        <v>2.5383255077199964E-3</v>
+        <v>1.0943192725308037E-2</v>
       </c>
     </row>
     <row r="622" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A622" s="1">
-        <v>2.5532545860873059E-3</v>
+        <v>2.5383255077199964E-3</v>
       </c>
     </row>
     <row r="623" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A623" s="1">
-        <v>-1.319154914543752E-3</v>
+        <v>2.5532545860873059E-3</v>
       </c>
     </row>
     <row r="624" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A624" s="1">
-        <v>-1.304418255340405E-2</v>
+        <v>-1.319154914543752E-3</v>
       </c>
     </row>
     <row r="625" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A625" s="1">
-        <v>-1.7871964321194867E-3</v>
+        <v>-1.304418255340405E-2</v>
       </c>
     </row>
     <row r="626" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A626" s="1">
-        <v>-1.4309234376476177E-2</v>
+        <v>-1.7871964321194867E-3</v>
       </c>
     </row>
     <row r="627" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A627" s="1">
-        <v>-8.8440739379080815E-6</v>
+        <v>-1.4309234376476177E-2</v>
       </c>
     </row>
     <row r="628" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A628" s="1">
-        <v>9.5505556227754689E-3</v>
+        <v>-8.8440739379080815E-6</v>
       </c>
     </row>
     <row r="629" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A629" s="1">
-        <v>6.1883993938069539E-3</v>
+        <v>9.5505556227754689E-3</v>
       </c>
     </row>
     <row r="630" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A630" s="1">
-        <v>-7.1122415701497131E-3</v>
+        <v>6.1883993938069539E-3</v>
       </c>
     </row>
     <row r="631" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A631" s="1">
-        <v>9.0070289309444711E-3</v>
+        <v>-7.1122415701497131E-3</v>
       </c>
     </row>
     <row r="632" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A632" s="1">
-        <v>-2.2789369142628855E-3</v>
+        <v>9.0070289309444711E-3</v>
       </c>
     </row>
     <row r="633" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A633" s="1">
-        <v>-4.8779610016483231E-3</v>
+        <v>-2.2789369142628855E-3</v>
       </c>
     </row>
     <row r="634" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A634" s="1">
-        <v>5.4474727994932694E-3</v>
+        <v>-4.8779610016483231E-3</v>
       </c>
     </row>
     <row r="635" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A635" s="1">
-        <v>8.9544944704311284E-3</v>
+        <v>5.4474727994932694E-3</v>
       </c>
     </row>
     <row r="636" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A636" s="1">
-        <v>-8.4692202385497246E-3</v>
+        <v>8.9544944704311284E-3</v>
       </c>
     </row>
     <row r="637" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A637" s="1">
-        <v>-6.3969088983125031E-3</v>
+        <v>-8.4692202385497246E-3</v>
       </c>
     </row>
     <row r="638" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A638" s="1">
-        <v>-1.2287442420289452E-3</v>
+        <v>-6.3969088983125031E-3</v>
       </c>
     </row>
     <row r="639" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A639" s="1">
-        <v>-9.3030321361185393E-3</v>
+        <v>-1.2287442420289452E-3</v>
       </c>
     </row>
     <row r="640" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A640" s="1">
-        <v>4.1463723420164912E-3</v>
+        <v>-9.3030321361185393E-3</v>
       </c>
     </row>
     <row r="641" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A641" s="1">
-        <v>-8.3277858165889292E-3</v>
+        <v>4.1463723420164912E-3</v>
       </c>
     </row>
     <row r="642" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A642" s="1">
-        <v>-9.9614513247779264E-3</v>
+        <v>-8.3277858165889292E-3</v>
       </c>
     </row>
     <row r="643" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A643" s="1">
-        <v>-1.3446781025088227E-4</v>
+        <v>-9.9614513247779264E-3</v>
       </c>
     </row>
     <row r="644" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A644" s="1">
-        <v>-4.7558422282854449E-3</v>
+        <v>-1.3446781025088227E-4</v>
       </c>
     </row>
     <row r="645" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A645" s="1">
-        <v>-6.0626161204595523E-4</v>
+        <v>-4.7558422282854449E-3</v>
       </c>
     </row>
     <row r="646" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A646" s="1">
-        <v>-9.5590177835907404E-3</v>
+        <v>-6.0626161204595523E-4</v>
       </c>
     </row>
     <row r="647" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A647" s="1">
-        <v>-2.4535115792190243E-5</v>
+        <v>-9.5590177835907404E-3</v>
       </c>
     </row>
     <row r="648" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A648" s="1">
-        <v>-4.4820222812980137E-5</v>
+        <v>-2.4535115792190243E-5</v>
       </c>
     </row>
     <row r="649" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A649" s="1">
-        <v>2.6621396343635696E-4</v>
+        <v>-4.4820222812980137E-5</v>
       </c>
     </row>
     <row r="650" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A650" s="1">
-        <v>-9.8658154544171602E-3</v>
+        <v>2.6621396343635696E-4</v>
       </c>
     </row>
     <row r="651" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A651" s="1">
-        <v>1.5510225565243018E-2</v>
+        <v>-9.8658154544171602E-3</v>
       </c>
     </row>
     <row r="652" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A652" s="1">
-        <v>-3.6828581694290817E-3</v>
+        <v>1.5510225565243018E-2</v>
       </c>
     </row>
     <row r="653" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A653" s="1">
-        <v>-7.7057098259814437E-3</v>
+        <v>-3.6828581694290817E-3</v>
       </c>
     </row>
     <row r="654" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A654" s="1">
-        <v>2.6821959308673373E-3</v>
+        <v>-7.7057098259814437E-3</v>
       </c>
     </row>
     <row r="655" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A655" s="1">
-        <v>3.66814499952568E-3</v>
+        <v>2.6821959308673373E-3</v>
       </c>
     </row>
     <row r="656" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A656" s="1">
-        <v>-5.5682973474251445E-4</v>
+        <v>3.66814499952568E-3</v>
       </c>
     </row>
     <row r="657" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A657" s="1">
-        <v>9.3144388792449455E-3</v>
+        <v>-5.5682973474251445E-4</v>
       </c>
     </row>
     <row r="658" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A658" s="1">
-        <v>-1.0142989369353473E-2</v>
+        <v>9.3144388792449455E-3</v>
       </c>
     </row>
     <row r="659" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A659" s="1">
-        <v>-4.089524495489094E-3</v>
+        <v>-1.0142989369353473E-2</v>
       </c>
     </row>
     <row r="660" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A660" s="1">
-        <v>6.177348724503773E-3</v>
+        <v>-4.089524495489094E-3</v>
       </c>
     </row>
     <row r="661" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A661" s="1">
-        <v>-1.6060977054996251E-2</v>
+        <v>6.177348724503773E-3</v>
       </c>
     </row>
     <row r="662" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A662" s="1">
-        <v>-1.457538699712373E-2</v>
+        <v>-1.6060977054996251E-2</v>
       </c>
     </row>
     <row r="663" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A663" s="1">
-        <v>-2.0473376981386338E-2</v>
+        <v>-1.457538699712373E-2</v>
       </c>
     </row>
     <row r="664" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A664" s="1">
-        <v>2.0298890918894587E-3</v>
+        <v>-2.0473376981386338E-2</v>
       </c>
     </row>
     <row r="665" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A665" s="1">
-        <v>9.6443883130119083E-3</v>
+        <v>2.0298890918894587E-3</v>
       </c>
     </row>
     <row r="666" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A666" s="1">
-        <v>-1.0138955588087129E-2</v>
+        <v>9.6443883130119083E-3</v>
       </c>
     </row>
     <row r="667" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A667" s="1">
-        <v>2.4636621359864285E-2</v>
+        <v>-1.0138955588087129E-2</v>
       </c>
     </row>
     <row r="668" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A668" s="1">
-        <v>-1.5986030181352185E-2</v>
+        <v>2.4636621359864285E-2</v>
       </c>
     </row>
     <row r="669" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A669" s="1">
-        <v>9.1084228854418463E-3</v>
+        <v>-1.5986030181352185E-2</v>
       </c>
     </row>
     <row r="670" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A670" s="1">
-        <v>-1.2503390102139456E-2</v>
+        <v>9.1084228854418463E-3</v>
       </c>
     </row>
     <row r="671" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A671" s="1">
-        <v>1.0832833909663719E-3</v>
+        <v>-1.2503390102139456E-2</v>
       </c>
     </row>
     <row r="672" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A672" s="1">
-        <v>-1.4158101383937628E-2</v>
+        <v>1.0832833909663719E-3</v>
       </c>
     </row>
     <row r="673" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A673" s="1">
-        <v>8.6659272011965875E-3</v>
+        <v>-1.4158101383937628E-2</v>
       </c>
     </row>
     <row r="674" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A674" s="1">
-        <v>3.1692892401775198E-3</v>
+        <v>8.6659272011965875E-3</v>
       </c>
     </row>
     <row r="675" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A675" s="1">
-        <v>1.822341339443767E-3</v>
+        <v>3.1692892401775198E-3</v>
       </c>
     </row>
     <row r="676" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A676" s="1">
-        <v>1.4505373809600996E-2</v>
+        <v>1.822341339443767E-3</v>
       </c>
     </row>
     <row r="677" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A677" s="1">
-        <v>-6.8595751490700967E-4</v>
+        <v>1.4505373809600996E-2</v>
       </c>
     </row>
     <row r="678" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A678" s="1">
-        <v>2.3582453018448747E-3</v>
+        <v>-6.8595751490700967E-4</v>
       </c>
     </row>
     <row r="679" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A679" s="1">
-        <v>5.7759095567481824E-3</v>
+        <v>2.3582453018448747E-3</v>
       </c>
     </row>
     <row r="680" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A680" s="1">
-        <v>-9.0402183916287633E-3</v>
+        <v>5.7759095567481824E-3</v>
       </c>
     </row>
     <row r="681" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A681" s="1">
-        <v>3.9964995135088445E-3</v>
+        <v>-9.0402183916287633E-3</v>
       </c>
     </row>
     <row r="682" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A682" s="1">
-        <v>-4.3647222159640007E-3</v>
+        <v>3.9964995135088445E-3</v>
       </c>
     </row>
     <row r="683" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A683" s="1">
-        <v>6.0803549390817226E-3</v>
+        <v>-4.3647222159640007E-3</v>
       </c>
     </row>
     <row r="684" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A684" s="1">
-        <v>8.422241880982461E-3</v>
+        <v>6.0803549390817226E-3</v>
       </c>
     </row>
     <row r="685" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A685" s="1">
-        <v>4.3949404175284814E-3</v>
+        <v>8.422241880982461E-3</v>
       </c>
     </row>
     <row r="686" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A686" s="1">
-        <v>1.2669113053685521E-2</v>
+        <v>4.3949404175284814E-3</v>
       </c>
     </row>
     <row r="687" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A687" s="1">
-        <v>5.390980754410535E-3</v>
+        <v>1.2669113053685521E-2</v>
       </c>
     </row>
     <row r="688" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A688" s="1">
-        <v>1.4114153120605266E-3</v>
+        <v>5.390980754410535E-3</v>
       </c>
     </row>
     <row r="689" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A689" s="1">
-        <v>4.5197253622568214E-3</v>
+        <v>1.4114153120605266E-3</v>
       </c>
     </row>
     <row r="690" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A690" s="1">
-        <v>1.9468409519378227E-3</v>
+        <v>4.5197253622568214E-3</v>
       </c>
     </row>
     <row r="691" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A691" s="1">
-        <v>-6.060548560764367E-3</v>
+        <v>1.9468409519378227E-3</v>
       </c>
     </row>
     <row r="692" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A692" s="1">
-        <v>9.7823386507462466E-3</v>
+        <v>-6.060548560764367E-3</v>
       </c>
     </row>
     <row r="693" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A693" s="1">
-        <v>1.6986422260211853E-3</v>
+        <v>9.7823386507462466E-3</v>
       </c>
     </row>
     <row r="694" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A694" s="1">
-        <v>-4.0913601466233017E-3</v>
+        <v>1.6986422260211853E-3</v>
       </c>
     </row>
     <row r="695" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A695" s="1">
-        <v>8.9844889260490383E-3</v>
+        <v>-4.0913601466233017E-3</v>
       </c>
     </row>
     <row r="696" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A696" s="1">
-        <v>4.2827635100055163E-3</v>
+        <v>8.9844889260490383E-3</v>
       </c>
     </row>
     <row r="697" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A697" s="1">
-        <v>-1.3116781590554006E-2</v>
+        <v>4.2827635100055163E-3</v>
       </c>
     </row>
     <row r="698" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A698" s="1">
-        <v>1.6213665867425675E-3</v>
+        <v>-1.3116781590554006E-2</v>
       </c>
     </row>
     <row r="699" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A699" s="1">
-        <v>-4.6184621818319725E-3</v>
+        <v>1.6213665867425675E-3</v>
       </c>
     </row>
     <row r="700" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A700" s="1">
-        <v>-3.8491220200958408E-3</v>
+        <v>-4.6184621818319725E-3</v>
       </c>
     </row>
     <row r="701" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A701" s="1">
-        <v>7.621059530362473E-3</v>
+        <v>-3.8491220200958408E-3</v>
       </c>
     </row>
     <row r="702" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A702" s="1">
-        <v>-7.1867732088966461E-3</v>
+        <v>7.621059530362473E-3</v>
       </c>
     </row>
     <row r="703" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A703" s="1">
-        <v>2.418036404952595E-3</v>
+        <v>-7.1867732088966461E-3</v>
       </c>
     </row>
     <row r="704" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A704" s="1">
-        <v>-4.2812904909865778E-4</v>
+        <v>2.418036404952595E-3</v>
       </c>
     </row>
     <row r="705" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A705" s="1">
-        <v>2.3710720635820694E-3</v>
+        <v>-4.2812904909865778E-4</v>
       </c>
     </row>
     <row r="706" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A706" s="1">
-        <v>6.3678908939365899E-3</v>
+        <v>2.3710720635820694E-3</v>
       </c>
     </row>
     <row r="707" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A707" s="1">
-        <v>-7.3835884977668689E-6</v>
+        <v>6.3678908939365899E-3</v>
       </c>
     </row>
     <row r="708" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A708" s="1">
-        <v>-1.4145626233268871E-3</v>
+        <v>-7.3835884977668689E-6</v>
       </c>
     </row>
     <row r="709" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A709" s="1">
-        <v>9.4017300149680234E-4</v>
+        <v>-1.4145626233268871E-3</v>
       </c>
     </row>
     <row r="710" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A710" s="1">
-        <v>-7.8053188310889146E-6</v>
+        <v>9.4017300149680234E-4</v>
       </c>
     </row>
     <row r="711" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A711" s="1">
-        <v>-1.0734284477228507E-2</v>
+        <v>-7.8053188310889146E-6</v>
       </c>
     </row>
     <row r="712" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A712" s="1">
-        <v>-8.9005478636845943E-3</v>
+        <v>-1.0734284477228507E-2</v>
       </c>
     </row>
     <row r="713" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A713" s="1">
-        <v>-4.4048550934137507E-3</v>
+        <v>-8.9005478636845943E-3</v>
       </c>
     </row>
     <row r="714" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A714" s="1">
-        <v>1.1533086473630227E-2</v>
+        <v>-4.4048550934137507E-3</v>
       </c>
     </row>
     <row r="715" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A715" s="1">
-        <v>-9.5002927052583179E-4</v>
+        <v>1.1533086473630227E-2</v>
       </c>
     </row>
     <row r="716" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A716" s="1">
-        <v>-6.2498619539208987E-3</v>
+        <v>-9.5002927052583179E-4</v>
       </c>
     </row>
     <row r="717" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A717" s="1">
-        <v>-2.6749166040112015E-4</v>
+        <v>-6.2498619539208987E-3</v>
       </c>
     </row>
     <row r="718" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A718" s="1">
-        <v>9.8714883558265847E-3</v>
+        <v>-2.6749166040112015E-4</v>
       </c>
     </row>
     <row r="719" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A719" s="1">
-        <v>-5.3373259900178381E-3</v>
+        <v>9.8714883558265847E-3</v>
       </c>
     </row>
     <row r="720" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A720" s="1">
-        <v>2.916159719895184E-3</v>
+        <v>-5.3373259900178381E-3</v>
       </c>
     </row>
     <row r="721" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A721" s="1">
-        <v>1.7305975260342343E-2</v>
+        <v>2.916159719895184E-3</v>
       </c>
     </row>
     <row r="722" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A722" s="1">
-        <v>1.0149290752950079E-2</v>
+        <v>1.7305975260342343E-2</v>
       </c>
     </row>
     <row r="723" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A723" s="1">
-        <v>3.1418827506703552E-3</v>
+        <v>1.0149290752950079E-2</v>
       </c>
     </row>
     <row r="724" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A724" s="1">
-        <v>-1.8956584263030141E-5</v>
+        <v>3.1418827506703552E-3</v>
       </c>
     </row>
     <row r="725" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A725" s="1">
-        <v>3.5872676801506744E-3</v>
+        <v>-1.8956584263030141E-5</v>
       </c>
     </row>
     <row r="726" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A726" s="1">
-        <v>1.3709630104001391E-3</v>
+        <v>3.5872676801506744E-3</v>
       </c>
     </row>
     <row r="727" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A727" s="1">
-        <v>-6.0042192844081297E-3</v>
+        <v>1.3709630104001391E-3</v>
       </c>
     </row>
     <row r="728" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A728" s="1">
-        <v>1.2645793080203482E-2</v>
+        <v>-6.0042192844081297E-3</v>
       </c>
     </row>
     <row r="729" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A729" s="1">
-        <v>6.5900348097748919E-3</v>
+        <v>1.2645793080203482E-2</v>
       </c>
     </row>
     <row r="730" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A730" s="1">
-        <v>-5.0326889205337009E-3</v>
+        <v>6.5900348097748919E-3</v>
       </c>
     </row>
     <row r="731" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A731" s="1">
-        <v>5.6339895645862736E-5</v>
+        <v>-5.0326889205337009E-3</v>
       </c>
     </row>
     <row r="732" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A732" s="1">
-        <v>-6.4486648899675812E-3</v>
+        <v>5.6339895645862736E-5</v>
       </c>
     </row>
     <row r="733" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A733" s="1">
-        <v>3.793204509004511E-3</v>
+        <v>-6.4486648899675812E-3</v>
       </c>
     </row>
     <row r="734" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A734" s="1">
-        <v>4.2234966633573736E-3</v>
+        <v>3.793204509004511E-3</v>
       </c>
     </row>
     <row r="735" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A735" s="1">
-        <v>5.1071977303786655E-3</v>
+        <v>4.2234966633573736E-3</v>
       </c>
     </row>
     <row r="736" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A736" s="1">
-        <v>-6.6767906855822899E-3</v>
+        <v>5.1071977303786655E-3</v>
       </c>
     </row>
     <row r="737" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A737" s="1">
-        <v>4.3503348839976754E-3</v>
+        <v>-6.6767906855822899E-3</v>
       </c>
     </row>
     <row r="738" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A738" s="1">
-        <v>9.8515677918735271E-3</v>
+        <v>4.3503348839976754E-3</v>
       </c>
     </row>
     <row r="739" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A739" s="1">
-        <v>-1.0710846436337463E-3</v>
+        <v>9.8515677918735271E-3</v>
       </c>
     </row>
     <row r="740" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A740" s="1">
-        <v>-1.2031918654844809E-2</v>
+        <v>-1.0710846436337463E-3</v>
       </c>
     </row>
     <row r="741" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A741" s="1">
-        <v>-6.6051957082143174E-3</v>
+        <v>-1.2031918654844809E-2</v>
       </c>
     </row>
     <row r="742" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A742" s="1">
-        <v>-6.6939298565696246E-3</v>
+        <v>-6.6051957082143174E-3</v>
       </c>
     </row>
     <row r="743" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A743" s="1">
-        <v>4.0508197552730609E-3</v>
+        <v>-6.6939298565696246E-3</v>
       </c>
     </row>
     <row r="744" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A744" s="1">
-        <v>-8.0291579814780085E-3</v>
+        <v>4.0508197552730609E-3</v>
       </c>
     </row>
     <row r="745" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A745" s="1">
-        <v>7.2611330373774765E-3</v>
+        <v>-8.0291579814780085E-3</v>
       </c>
     </row>
     <row r="746" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A746" s="1">
-        <v>-8.616536008024412E-3</v>
+        <v>7.2611330373774765E-3</v>
       </c>
     </row>
     <row r="747" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A747" s="1">
-        <v>4.22338036499621E-3</v>
+        <v>-8.616536008024412E-3</v>
       </c>
     </row>
     <row r="748" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A748" s="1">
-        <v>-1.4397923467897301E-2</v>
+        <v>4.22338036499621E-3</v>
       </c>
     </row>
     <row r="749" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A749" s="1">
-        <v>3.3116322476162809E-3</v>
+        <v>-1.4397923467897301E-2</v>
       </c>
     </row>
     <row r="750" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A750" s="1">
-        <v>-4.7039014961381296E-3</v>
+        <v>3.3116322476162809E-3</v>
       </c>
     </row>
     <row r="751" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A751" s="1">
-        <v>-7.102612822389887E-4</v>
+        <v>-4.7039014961381296E-3</v>
       </c>
     </row>
     <row r="752" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A752" s="1">
-        <v>2.2687881327378536E-3</v>
+        <v>-7.102612822389887E-4</v>
       </c>
     </row>
     <row r="753" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A753" s="1">
-        <v>-2.4113297204191751E-3</v>
+        <v>2.2687881327378536E-3</v>
       </c>
     </row>
     <row r="754" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A754" s="1">
-        <v>-4.3766393455227258E-3</v>
+        <v>-2.4113297204191751E-3</v>
       </c>
     </row>
     <row r="755" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A755" s="1">
-        <v>2.0946144467670182E-3</v>
+        <v>-4.3766393455227258E-3</v>
       </c>
     </row>
     <row r="756" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A756" s="1">
-        <v>-6.8590859522641877E-3</v>
+        <v>2.0946144467670182E-3</v>
       </c>
     </row>
     <row r="757" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A757" s="1">
-        <v>7.461069446660318E-3</v>
+        <v>-6.8590859522641877E-3</v>
       </c>
     </row>
     <row r="758" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A758" s="1">
-        <v>-4.1645925599594234E-3</v>
+        <v>7.461069446660318E-3</v>
       </c>
     </row>
     <row r="759" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A759" s="1">
-        <v>9.9633705984702552E-3</v>
+        <v>-4.1645925599594234E-3</v>
       </c>
     </row>
     <row r="760" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A760" s="1">
-        <v>-2.4156374296351755E-3</v>
+        <v>9.9633705984702552E-3</v>
       </c>
     </row>
     <row r="761" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A761" s="1">
-        <v>-3.6517116240062817E-3</v>
+        <v>-2.4156374296351755E-3</v>
       </c>
     </row>
     <row r="762" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A762" s="1">
-        <v>1.1506615875136638E-2</v>
+        <v>-3.6517116240062817E-3</v>
       </c>
     </row>
     <row r="763" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A763" s="1">
-        <v>1.9163040377769391E-3</v>
+        <v>1.1506615875136638E-2</v>
       </c>
     </row>
     <row r="764" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A764" s="1">
-        <v>-3.2330103039404532E-3</v>
+        <v>1.9163040377769391E-3</v>
       </c>
     </row>
     <row r="765" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A765" s="1">
-        <v>3.9003258427509737E-3</v>
+        <v>-3.2330103039404532E-3</v>
       </c>
     </row>
     <row r="766" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A766" s="1">
-        <v>2.8922851669578977E-3</v>
+        <v>3.9003258427509737E-3</v>
       </c>
     </row>
     <row r="767" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A767" s="1">
-        <v>-5.555700964221799E-3</v>
+        <v>2.8922851669578977E-3</v>
       </c>
     </row>
     <row r="768" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A768" s="1">
-        <v>-1.0843923562701186E-2</v>
+        <v>-5.555700964221799E-3</v>
       </c>
     </row>
     <row r="769" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A769" s="1">
-        <v>-1.9474214883830499E-3</v>
+        <v>-1.0843923562701186E-2</v>
       </c>
     </row>
     <row r="770" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A770" s="1">
-        <v>6.1279112857086206E-3</v>
+        <v>-1.9474214883830499E-3</v>
       </c>
     </row>
     <row r="771" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A771" s="1">
-        <v>-7.4762835222673017E-3</v>
+        <v>6.1279112857086206E-3</v>
       </c>
     </row>
     <row r="772" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A772" s="1">
-        <v>-6.981354224835634E-3</v>
+        <v>-7.4762835222673017E-3</v>
       </c>
     </row>
     <row r="773" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A773" s="1">
-        <v>-1.2118731890743462E-2</v>
+        <v>-6.981354224835634E-3</v>
       </c>
     </row>
     <row r="774" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A774" s="1">
-        <v>1.4964911699195226E-3</v>
+        <v>-1.2118731890743462E-2</v>
       </c>
     </row>
     <row r="775" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A775" s="1">
-        <v>2.4000681522011293E-3</v>
+        <v>1.4964911699195226E-3</v>
       </c>
     </row>
     <row r="776" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A776" s="1">
-        <v>1.7133251796483506E-3</v>
+        <v>2.4000681522011293E-3</v>
       </c>
     </row>
     <row r="777" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A777" s="1">
-        <v>-2.8453439571698878E-3</v>
+        <v>1.7133251796483506E-3</v>
       </c>
     </row>
     <row r="778" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A778" s="1">
-        <v>-9.4885717215991154E-4</v>
+        <v>-2.8453439571698878E-3</v>
       </c>
     </row>
     <row r="779" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A779" s="1">
-        <v>1.1665045067010559E-2</v>
+        <v>-9.4885717215991154E-4</v>
       </c>
     </row>
     <row r="780" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A780" s="1">
-        <v>4.4110247569363993E-3</v>
+        <v>1.1665045067010559E-2</v>
       </c>
     </row>
     <row r="781" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A781" s="1">
-        <v>1.2698646641624122E-3</v>
+        <v>4.4110247569363993E-3</v>
       </c>
     </row>
     <row r="782" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A782" s="1">
-        <v>-7.9503158010545867E-3</v>
+        <v>1.2698646641624122E-3</v>
       </c>
     </row>
     <row r="783" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A783" s="1">
-        <v>-1.7599107056723896E-2</v>
+        <v>-7.9503158010545867E-3</v>
       </c>
     </row>
     <row r="784" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A784" s="1">
-        <v>-9.5136910999061193E-3</v>
+        <v>-1.7599107056723896E-2</v>
       </c>
     </row>
     <row r="785" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A785" s="1">
-        <v>2.5372101294040663E-3</v>
+        <v>-9.5136910999061193E-3</v>
       </c>
     </row>
     <row r="786" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A786" s="1">
-        <v>-5.9497830453192789E-3</v>
+        <v>2.5372101294040663E-3</v>
       </c>
     </row>
     <row r="787" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A787" s="1">
-        <v>-9.0803540911890586E-3</v>
+        <v>-5.9497830453192789E-3</v>
       </c>
     </row>
     <row r="788" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A788" s="1">
-        <v>-1.1992922050403188E-2</v>
+        <v>-9.0803540911890586E-3</v>
       </c>
     </row>
     <row r="789" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A789" s="1">
-        <v>4.3071380874703637E-3</v>
+        <v>-1.1992922050403188E-2</v>
       </c>
     </row>
     <row r="790" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A790" s="1">
-        <v>8.0983282407000694E-3</v>
+        <v>4.3071380874703637E-3</v>
       </c>
     </row>
     <row r="791" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A791" s="1">
-        <v>2.1788306722456243E-3</v>
+        <v>8.0983282407000694E-3</v>
       </c>
     </row>
     <row r="792" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A792" s="1">
-        <v>-7.3979717909471885E-3</v>
+        <v>2.1788306722456243E-3</v>
       </c>
     </row>
     <row r="793" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A793" s="1">
-        <v>1.6528048814158324E-2</v>
+        <v>-7.3979717909471885E-3</v>
       </c>
     </row>
     <row r="794" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A794" s="1">
-        <v>-1.1588839828822906E-2</v>
+        <v>1.6528048814158324E-2</v>
       </c>
     </row>
     <row r="795" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A795" s="1">
-        <v>6.3278878673395768E-3</v>
+        <v>-1.1588839828822906E-2</v>
       </c>
     </row>
     <row r="796" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A796" s="1">
-        <v>1.5550545773010249E-2</v>
+        <v>6.3278878673395768E-3</v>
       </c>
     </row>
     <row r="797" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A797" s="1">
-        <v>-3.4867155730589515E-3</v>
+        <v>1.5550545773010249E-2</v>
       </c>
     </row>
     <row r="798" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A798" s="1">
-        <v>-4.9328911038209354E-3</v>
+        <v>-3.4867155730589515E-3</v>
       </c>
     </row>
     <row r="799" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A799" s="1">
-        <v>-1.7874159922585165E-2</v>
+        <v>-4.9328911038209354E-3</v>
       </c>
     </row>
     <row r="800" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A800" s="1">
-        <v>1.2086063870566831E-2</v>
+        <v>-1.7874159922585165E-2</v>
       </c>
     </row>
     <row r="801" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A801" s="1">
-        <v>1.3984144974630474E-2</v>
+        <v>1.2086063870566831E-2</v>
       </c>
     </row>
     <row r="802" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A802" s="1">
-        <v>-3.4188441645149224E-3</v>
+        <v>1.3984144974630474E-2</v>
       </c>
     </row>
     <row r="803" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A803" s="1">
-        <v>1.3745488224206247E-2</v>
+        <v>-3.4188441645149224E-3</v>
       </c>
     </row>
     <row r="804" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A804" s="1">
-        <v>6.9254509813074351E-3</v>
+        <v>1.3745488224206247E-2</v>
       </c>
     </row>
     <row r="805" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A805" s="1">
-        <v>3.7875968040490095E-3</v>
+        <v>6.9254509813074351E-3</v>
       </c>
     </row>
     <row r="806" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A806" s="1">
-        <v>3.5859559693493638E-3</v>
+        <v>3.7875968040490095E-3</v>
       </c>
     </row>
     <row r="807" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A807" s="1">
-        <v>-3.303376435462013E-3</v>
+        <v>3.5859559693493638E-3</v>
       </c>
     </row>
     <row r="808" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A808" s="1">
-        <v>1.2535840202849257E-3</v>
+        <v>-3.303376435462013E-3</v>
       </c>
     </row>
     <row r="809" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A809" s="1">
-        <v>9.0793255543337274E-3</v>
+        <v>1.2535840202849257E-3</v>
       </c>
     </row>
     <row r="810" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A810" s="1">
-        <v>2.165533148121135E-3</v>
+        <v>9.0793255543337274E-3</v>
       </c>
     </row>
     <row r="811" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A811" s="1">
-        <v>-1.1571675819633143E-3</v>
+        <v>2.165533148121135E-3</v>
       </c>
     </row>
     <row r="812" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A812" s="1">
-        <v>-6.9440300998698133E-3</v>
+        <v>-1.1571675819633143E-3</v>
       </c>
     </row>
     <row r="813" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A813" s="1">
-        <v>7.7245978319773212E-5</v>
+        <v>-6.9440300998698133E-3</v>
       </c>
     </row>
     <row r="814" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A814" s="1">
-        <v>1.4291695195037767E-2</v>
+        <v>7.7245978319773212E-5</v>
       </c>
     </row>
     <row r="815" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A815" s="1">
-        <v>2.505643503255506E-3</v>
+        <v>1.4291695195037767E-2</v>
       </c>
     </row>
     <row r="816" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A816" s="1">
-        <v>6.0675085346588277E-3</v>
+        <v>2.505643503255506E-3</v>
       </c>
     </row>
     <row r="817" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A817" s="1">
-        <v>4.8232691648603778E-3</v>
+        <v>6.0675085346588277E-3</v>
       </c>
     </row>
     <row r="818" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A818" s="1">
-        <v>2.377980572445715E-3</v>
+        <v>4.8232691648603778E-3</v>
       </c>
     </row>
     <row r="819" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A819" s="1">
-        <v>8.7302679573326709E-4</v>
+        <v>2.377980572445715E-3</v>
       </c>
     </row>
     <row r="820" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A820" s="1">
-        <v>-1.0968004317172309E-2</v>
+        <v>8.7302679573326709E-4</v>
       </c>
     </row>
     <row r="821" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A821" s="1">
-        <v>-3.4452770857907209E-3</v>
+        <v>-1.0968004317172309E-2</v>
       </c>
     </row>
     <row r="822" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A822" s="1">
-        <v>-4.175288028214652E-4</v>
+        <v>-3.4452770857907209E-3</v>
       </c>
     </row>
     <row r="823" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A823" s="1">
-        <v>1.4800202051921296E-2</v>
+        <v>-4.175288028214652E-4</v>
       </c>
     </row>
     <row r="824" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A824" s="1">
-        <v>2.264159332041338E-3</v>
+        <v>1.4800202051921296E-2</v>
       </c>
     </row>
     <row r="825" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A825" s="1">
-        <v>-7.4100872707870023E-3</v>
+        <v>2.264159332041338E-3</v>
       </c>
     </row>
     <row r="826" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A826" s="1">
-        <v>9.1422497818367528E-4</v>
+        <v>-7.4100872707870023E-3</v>
       </c>
     </row>
     <row r="827" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A827" s="1">
-        <v>-4.3446842459340827E-3</v>
+        <v>9.1422497818367528E-4</v>
       </c>
     </row>
     <row r="828" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A828" s="1">
-        <v>-2.9343019418826442E-3</v>
+        <v>-4.3446842459340827E-3</v>
       </c>
     </row>
     <row r="829" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A829" s="1">
-        <v>4.0944238891624353E-3</v>
+        <v>-2.9343019418826442E-3</v>
       </c>
     </row>
     <row r="830" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A830" s="1">
-        <v>1.4014210162997642E-3</v>
+        <v>4.0944238891624353E-3</v>
       </c>
     </row>
     <row r="831" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A831" s="1">
-        <v>1.3228849211499138E-3</v>
+        <v>1.4014210162997642E-3</v>
       </c>
     </row>
     <row r="832" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A832" s="1">
-        <v>-1.5313792000293703E-3</v>
+        <v>1.3228849211499138E-3</v>
       </c>
     </row>
     <row r="833" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A833" s="1">
-        <v>-1.3334343781464142E-3</v>
+        <v>-1.5313792000293703E-3</v>
       </c>
     </row>
     <row r="834" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A834" s="1">
-        <v>-4.0784991332028396E-3</v>
+        <v>-1.3334343781464142E-3</v>
       </c>
     </row>
     <row r="835" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A835" s="1">
-        <v>-1.3757957431479718E-2</v>
+        <v>-4.0784991332028396E-3</v>
       </c>
     </row>
     <row r="836" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A836" s="1">
-        <v>-6.1077189131690805E-4</v>
+        <v>-1.3757957431479718E-2</v>
       </c>
     </row>
     <row r="837" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A837" s="1">
-        <v>3.6822158377624705E-3</v>
+        <v>-6.1077189131690805E-4</v>
       </c>
     </row>
     <row r="838" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A838" s="1">
-        <v>6.1564999114313681E-3</v>
+        <v>3.6822158377624705E-3</v>
       </c>
     </row>
     <row r="839" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A839" s="1">
-        <v>8.3661198743740779E-4</v>
+        <v>6.1564999114313681E-3</v>
       </c>
     </row>
     <row r="840" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A840" s="1">
-        <v>-1.0533207027492431E-2</v>
+        <v>8.3661198743740779E-4</v>
       </c>
     </row>
     <row r="841" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A841" s="1">
-        <v>4.5334781770485223E-4</v>
+        <v>-1.0533207027492431E-2</v>
       </c>
     </row>
     <row r="842" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A842" s="1">
-        <v>-5.3149078255348313E-3</v>
+        <v>4.5334781770485223E-4</v>
       </c>
     </row>
     <row r="843" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A843" s="1">
-        <v>-6.2721953723839262E-3</v>
+        <v>-5.3149078255348313E-3</v>
       </c>
     </row>
     <row r="844" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A844" s="1">
-        <v>1.6804698262881067E-2</v>
+        <v>-6.2721953723839262E-3</v>
       </c>
     </row>
     <row r="845" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A845" s="1">
-        <v>8.2837044990899493E-3</v>
+        <v>1.6804698262881067E-2</v>
       </c>
     </row>
     <row r="846" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A846" s="1">
-        <v>5.4402817241944847E-3</v>
+        <v>8.2837044990899493E-3</v>
       </c>
     </row>
     <row r="847" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A847" s="1">
-        <v>1.2081132899768931E-2</v>
+        <v>5.4402817241944847E-3</v>
       </c>
     </row>
     <row r="848" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A848" s="1">
-        <v>5.1859551996280119E-3</v>
+        <v>1.2081132899768931E-2</v>
       </c>
     </row>
     <row r="849" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A849" s="1">
-        <v>2.3594110171671901E-4</v>
+        <v>5.1859551996280119E-3</v>
       </c>
     </row>
     <row r="850" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A850" s="1">
-        <v>4.2798860109797944E-3</v>
+        <v>2.3594110171671901E-4</v>
       </c>
     </row>
     <row r="851" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A851" s="1">
-        <v>-6.7791405544291193E-3</v>
+        <v>4.2798860109797944E-3</v>
       </c>
     </row>
     <row r="852" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A852" s="1">
-        <v>-3.1572886736412896E-4</v>
+        <v>-6.7791405544291193E-3</v>
       </c>
     </row>
     <row r="853" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A853" s="1">
-        <v>-6.6792993317193348E-3</v>
+        <v>-3.1572886736412896E-4</v>
       </c>
     </row>
     <row r="854" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A854" s="1">
-        <v>-1.052726405242126E-2</v>
+        <v>-6.6792993317193348E-3</v>
       </c>
     </row>
     <row r="855" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A855" s="1">
-        <v>9.2114391347603679E-3</v>
+        <v>-1.052726405242126E-2</v>
       </c>
     </row>
     <row r="856" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A856" s="1">
-        <v>-2.425509387161089E-2</v>
+        <v>9.2114391347603679E-3</v>
       </c>
     </row>
     <row r="857" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A857" s="1">
-        <v>-1.24281328516318E-4</v>
+        <v>-2.425509387161089E-2</v>
       </c>
     </row>
     <row r="858" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A858" s="1">
-        <v>6.9683481372308622E-3</v>
+        <v>-1.24281328516318E-4</v>
       </c>
     </row>
     <row r="859" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A859" s="1">
-        <v>-2.4995406397117391E-3</v>
+        <v>6.9683481372308622E-3</v>
       </c>
     </row>
     <row r="860" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A860" s="1">
-        <v>9.3711899246635248E-3</v>
+        <v>-2.4995406397117391E-3</v>
       </c>
     </row>
     <row r="861" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A861" s="1">
-        <v>8.7894016212166186E-3</v>
+        <v>9.3711899246635248E-3</v>
       </c>
     </row>
     <row r="862" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A862" s="1">
-        <v>6.3925339091337459E-4</v>
+        <v>8.7894016212166186E-3</v>
       </c>
     </row>
     <row r="863" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A863" s="1">
-        <v>-8.830462155343E-4</v>
+        <v>6.3925339091337459E-4</v>
       </c>
     </row>
     <row r="864" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A864" s="1">
-        <v>1.5867627665164363E-3</v>
+        <v>-8.830462155343E-4</v>
       </c>
     </row>
     <row r="865" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A865" s="1">
-        <v>-1.3092911983661183E-2</v>
+        <v>1.5867627665164363E-3</v>
       </c>
     </row>
     <row r="866" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A866" s="1">
-        <v>-8.8248424722825909E-3</v>
+        <v>-1.3092911983661183E-2</v>
       </c>
     </row>
     <row r="867" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A867" s="1">
-        <v>-2.1388513376397354E-3</v>
+        <v>-8.8248424722825909E-3</v>
       </c>
     </row>
     <row r="868" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A868" s="1">
-        <v>-6.612790224333409E-3</v>
+        <v>-2.1388513376397354E-3</v>
       </c>
     </row>
     <row r="869" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A869" s="1">
-        <v>9.2940505195661764E-3</v>
+        <v>-6.612790224333409E-3</v>
       </c>
     </row>
     <row r="870" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A870" s="1">
-        <v>-5.3796364637841874E-3</v>
+        <v>9.2940505195661764E-3</v>
       </c>
     </row>
     <row r="871" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A871" s="1">
-        <v>2.1938229554871571E-3</v>
+        <v>-5.3796364637841874E-3</v>
       </c>
     </row>
     <row r="872" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A872" s="1">
-        <v>-1.0272080119329275E-2</v>
+        <v>2.1938229554871571E-3</v>
       </c>
     </row>
     <row r="873" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A873" s="1">
-        <v>9.4666936881077739E-3</v>
+        <v>-1.0272080119329275E-2</v>
       </c>
     </row>
     <row r="874" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A874" s="1">
-        <v>5.8171016915917308E-3</v>
+        <v>9.4666936881077739E-3</v>
       </c>
     </row>
     <row r="875" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A875" s="1">
-        <v>7.4963890370415955E-3</v>
+        <v>5.8171016915917308E-3</v>
       </c>
     </row>
     <row r="876" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A876" s="1">
-        <v>-5.8284101911903361E-3</v>
+        <v>7.4963890370415955E-3</v>
       </c>
     </row>
     <row r="877" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A877" s="1">
-        <v>-9.003099579676644E-3</v>
+        <v>-5.8284101911903361E-3</v>
       </c>
     </row>
     <row r="878" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A878" s="1">
-        <v>8.4243422859817223E-3</v>
+        <v>-9.003099579676644E-3</v>
       </c>
     </row>
     <row r="879" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A879" s="1">
-        <v>-2.1544704038037208E-3</v>
+        <v>8.4243422859817223E-3</v>
       </c>
     </row>
     <row r="880" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A880" s="1">
-        <v>2.9144571098937535E-3</v>
+        <v>-2.1544704038037208E-3</v>
       </c>
     </row>
     <row r="881" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A881" s="1">
-        <v>8.300799434157468E-3</v>
+        <v>2.9144571098937535E-3</v>
       </c>
     </row>
     <row r="882" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A882" s="1">
-        <v>-1.1707888297682701E-2</v>
+        <v>8.300799434157468E-3</v>
       </c>
     </row>
     <row r="883" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A883" s="1">
-        <v>1.4002466486285847E-2</v>
+        <v>-1.1707888297682701E-2</v>
       </c>
     </row>
     <row r="884" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A884" s="1">
-        <v>-1.9930343558785422E-3</v>
+        <v>1.4002466486285847E-2</v>
       </c>
     </row>
     <row r="885" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A885" s="1">
-        <v>-4.1558044156165151E-3</v>
+        <v>-1.9930343558785422E-3</v>
       </c>
     </row>
     <row r="886" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A886" s="1">
-        <v>-7.6890256826754209E-3</v>
+        <v>-4.1558044156165151E-3</v>
       </c>
     </row>
     <row r="887" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A887" s="1">
-        <v>-8.2175633857202619E-3</v>
+        <v>-7.6890256826754209E-3</v>
       </c>
     </row>
     <row r="888" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A888" s="1">
-        <v>-8.7245312480259689E-4</v>
+        <v>-8.2175633857202619E-3</v>
       </c>
     </row>
     <row r="889" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A889" s="1">
-        <v>-8.3212933215442327E-3</v>
+        <v>-8.7245312480259689E-4</v>
       </c>
     </row>
     <row r="890" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A890" s="1">
-        <v>4.9945019041681251E-3</v>
+        <v>-8.3212933215442327E-3</v>
       </c>
     </row>
     <row r="891" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A891" s="1">
-        <v>1.7367487109948953E-3</v>
+        <v>4.9945019041681251E-3</v>
       </c>
     </row>
     <row r="892" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A892" s="1">
-        <v>1.2187523644642439E-2</v>
+        <v>1.7367487109948953E-3</v>
       </c>
     </row>
     <row r="893" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A893" s="1">
-        <v>6.4520256899795571E-3</v>
+        <v>1.2187523644642439E-2</v>
       </c>
     </row>
     <row r="894" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A894" s="1">
-        <v>-5.7927390482344519E-3</v>
+        <v>6.4520256899795571E-3</v>
       </c>
     </row>
     <row r="895" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A895" s="1">
-        <v>2.5379574737806722E-3</v>
+        <v>-5.7927390482344519E-3</v>
       </c>
     </row>
     <row r="896" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A896" s="1">
-        <v>2.8358164718584435E-3</v>
+        <v>2.5379574737806722E-3</v>
       </c>
     </row>
     <row r="897" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A897" s="1">
-        <v>-9.0946842127166867E-3</v>
+        <v>2.8358164718584435E-3</v>
       </c>
     </row>
     <row r="898" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A898" s="1">
-        <v>3.500514670767352E-3</v>
+        <v>-9.0946842127166867E-3</v>
       </c>
     </row>
     <row r="899" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A899" s="1">
-        <v>-1.857041846794516E-3</v>
+        <v>3.500514670767352E-3</v>
       </c>
     </row>
     <row r="900" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A900" s="1">
-        <v>5.0264259382332812E-3</v>
+        <v>-1.857041846794516E-3</v>
       </c>
     </row>
     <row r="901" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A901" s="1">
-        <v>7.2584183435360212E-4</v>
+        <v>5.0264259382332812E-3</v>
       </c>
     </row>
     <row r="902" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A902" s="1">
-        <v>-5.2806155029852418E-3</v>
+        <v>7.2584183435360212E-4</v>
       </c>
     </row>
     <row r="903" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A903" s="1">
-        <v>1.3888590348384255E-2</v>
+        <v>-5.2806155029852418E-3</v>
       </c>
     </row>
     <row r="904" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A904" s="1">
-        <v>8.3273916019717116E-4</v>
+        <v>1.3888590348384255E-2</v>
       </c>
     </row>
     <row r="905" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A905" s="1">
-        <v>-9.0690865338132203E-4</v>
+        <v>8.3273916019717116E-4</v>
       </c>
     </row>
     <row r="906" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A906" s="1">
-        <v>-1.7711812005590133E-3</v>
+        <v>-9.0690865338132203E-4</v>
       </c>
     </row>
     <row r="907" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A907" s="1">
-        <v>3.2153175444246786E-3</v>
+        <v>-1.7711812005590133E-3</v>
       </c>
     </row>
     <row r="908" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A908" s="1">
-        <v>5.6499779123708295E-3</v>
+        <v>3.2153175444246786E-3</v>
       </c>
     </row>
     <row r="909" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A909" s="1">
-        <v>1.3478260539763199E-4</v>
+        <v>5.6499779123708295E-3</v>
       </c>
     </row>
     <row r="910" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A910" s="1">
-        <v>-9.892015742827099E-3</v>
+        <v>1.3478260539763199E-4</v>
       </c>
     </row>
     <row r="911" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A911" s="1">
-        <v>-2.9281161378110097E-3</v>
+        <v>-9.892015742827099E-3</v>
       </c>
     </row>
     <row r="912" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A912" s="1">
-        <v>-1.0338484025067807E-2</v>
+        <v>-2.9281161378110097E-3</v>
       </c>
     </row>
     <row r="913" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A913" s="1">
-        <v>1.4056257627192536E-3</v>
+        <v>-1.0338484025067807E-2</v>
       </c>
     </row>
     <row r="914" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A914" s="1">
-        <v>4.4591003524489638E-3</v>
+        <v>1.4056257627192536E-3</v>
       </c>
     </row>
     <row r="915" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A915" s="1">
-        <v>-6.9145765436678273E-3</v>
+        <v>4.4591003524489638E-3</v>
       </c>
     </row>
     <row r="916" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A916" s="1">
-        <v>1.8808328709498844E-2</v>
+        <v>-6.9145765436678273E-3</v>
       </c>
     </row>
     <row r="917" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A917" s="1">
-        <v>5.7697124005155588E-3</v>
+        <v>1.8808328709498844E-2</v>
       </c>
     </row>
     <row r="918" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A918" s="1">
-        <v>-3.9864451345222205E-3</v>
+        <v>5.7697124005155588E-3</v>
       </c>
     </row>
     <row r="919" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A919" s="1">
-        <v>-8.8359339680160083E-3</v>
+        <v>-3.9864451345222205E-3</v>
       </c>
     </row>
     <row r="920" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A920" s="1">
-        <v>-4.5213401704218724E-3</v>
+        <v>-8.8359339680160083E-3</v>
       </c>
     </row>
     <row r="921" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A921" s="1">
-        <v>-1.7876406043873417E-3</v>
+        <v>-4.5213401704218724E-3</v>
       </c>
     </row>
     <row r="922" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A922" s="1">
-        <v>9.611854368857919E-4</v>
+        <v>-1.7876406043873417E-3</v>
       </c>
     </row>
     <row r="923" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A923" s="1">
-        <v>4.3722894755903853E-3</v>
+        <v>9.611854368857919E-4</v>
       </c>
     </row>
     <row r="924" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A924" s="1">
-        <v>-1.0056543593570489E-2</v>
+        <v>4.3722894755903853E-3</v>
       </c>
     </row>
     <row r="925" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A925" s="1">
-        <v>-8.1515602508995151E-3</v>
+        <v>-1.0056543593570489E-2</v>
       </c>
     </row>
     <row r="926" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A926" s="1">
-        <v>1.7218969867258238E-3</v>
+        <v>-8.1515602508995151E-3</v>
       </c>
     </row>
     <row r="927" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A927" s="1">
-        <v>-3.0113312213691399E-3</v>
+        <v>1.7218969867258238E-3</v>
       </c>
     </row>
     <row r="928" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A928" s="1">
-        <v>8.1462918171066427E-3</v>
+        <v>-3.0113312213691399E-3</v>
       </c>
     </row>
     <row r="929" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A929" s="1">
-        <v>7.5350134126994208E-3</v>
+        <v>8.1462918171066427E-3</v>
       </c>
     </row>
     <row r="930" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A930" s="1">
-        <v>5.6572513746928617E-4</v>
+        <v>7.5350134126994208E-3</v>
       </c>
     </row>
     <row r="931" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A931" s="1">
-        <v>-3.3451462356389071E-3</v>
+        <v>5.6572513746928617E-4</v>
       </c>
     </row>
     <row r="932" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A932" s="1">
-        <v>-7.9834810670867291E-3</v>
+        <v>-3.3451462356389071E-3</v>
       </c>
     </row>
     <row r="933" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A933" s="1">
-        <v>-2.1384343410281659E-2</v>
+        <v>-7.9834810670867291E-3</v>
       </c>
     </row>
     <row r="934" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A934" s="1">
-        <v>-1.3273403430560649E-2</v>
+        <v>-2.1384343410281659E-2</v>
       </c>
     </row>
     <row r="935" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A935" s="1">
-        <v>-2.8138054965827662E-3</v>
+        <v>-1.3273403430560649E-2</v>
       </c>
     </row>
     <row r="936" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A936" s="1">
-        <v>-4.6703534640915477E-3</v>
+        <v>-2.8138054965827662E-3</v>
       </c>
     </row>
     <row r="937" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A937" s="1">
-        <v>-1.5531725073446623E-2</v>
+        <v>-4.6703534640915477E-3</v>
       </c>
     </row>
     <row r="938" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A938" s="1">
-        <v>-7.5415848704583508E-3</v>
+        <v>-1.5531725073446623E-2</v>
       </c>
     </row>
     <row r="939" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A939" s="1">
-        <v>5.7332156448268281E-3</v>
+        <v>-7.5415848704583508E-3</v>
       </c>
     </row>
     <row r="940" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A940" s="1">
-        <v>-1.0094188667458859E-2</v>
+        <v>5.7332156448268281E-3</v>
       </c>
     </row>
     <row r="941" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A941" s="1">
-        <v>-6.9770844323649326E-3</v>
+        <v>-1.0094188667458859E-2</v>
       </c>
     </row>
     <row r="942" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A942" s="1">
-        <v>4.3438280560048172E-3</v>
+        <v>-6.9770844323649326E-3</v>
       </c>
     </row>
     <row r="943" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A943" s="1">
-        <v>1.2845639216435067E-2</v>
+        <v>4.3438280560048172E-3</v>
       </c>
     </row>
     <row r="944" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A944" s="1">
-        <v>5.0360870660030701E-3</v>
+        <v>1.2845639216435067E-2</v>
       </c>
     </row>
     <row r="945" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A945" s="1">
-        <v>-2.1326455538144985E-2</v>
+        <v>5.0360870660030701E-3</v>
       </c>
     </row>
     <row r="946" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A946" s="1">
-        <v>6.0439263770952325E-3</v>
+        <v>-2.1326455538144985E-2</v>
       </c>
     </row>
     <row r="947" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A947" s="1">
-        <v>1.8166352448764477E-2</v>
+        <v>6.0439263770952325E-3</v>
       </c>
     </row>
     <row r="948" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A948" s="1">
-        <v>-6.6953110746030835E-4</v>
+        <v>1.8166352448764477E-2</v>
       </c>
     </row>
     <row r="949" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A949" s="1">
-        <v>-2.3156152857243307E-2</v>
+        <v>-6.6953110746030835E-4</v>
       </c>
     </row>
     <row r="950" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A950" s="1">
-        <v>-3.6244008709712004E-3</v>
+        <v>-2.3156152857243307E-2</v>
       </c>
     </row>
     <row r="951" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A951" s="1">
-        <v>-5.5565251045671003E-3</v>
+        <v>-3.6244008709712004E-3</v>
       </c>
     </row>
     <row r="952" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A952" s="1">
-        <v>-3.4827708466929506E-3</v>
+        <v>-5.5565251045671003E-3</v>
       </c>
     </row>
     <row r="953" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A953" s="1">
-        <v>-5.2607711434518476E-3</v>
+        <v>-3.4827708466929506E-3</v>
       </c>
     </row>
     <row r="954" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A954" s="1">
-        <v>-2.116609883949554E-2</v>
+        <v>-5.2607711434518476E-3</v>
       </c>
     </row>
     <row r="955" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A955" s="1">
-        <v>-9.5211079822455254E-3</v>
+        <v>-2.116609883949554E-2</v>
       </c>
     </row>
     <row r="956" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A956" s="1">
-        <v>6.0404288561104027E-3</v>
+        <v>-9.5211079822455254E-3</v>
       </c>
     </row>
     <row r="957" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A957" s="1">
-        <v>2.7028051797930174E-2</v>
+        <v>6.0404288561104027E-3</v>
       </c>
     </row>
     <row r="958" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A958" s="1">
-        <v>-7.1114932517780003E-3</v>
+        <v>2.7028051797930174E-2</v>
       </c>
     </row>
     <row r="959" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A959" s="1">
-        <v>-9.6783205263147216E-3</v>
+        <v>-7.1114932517780003E-3</v>
       </c>
     </row>
     <row r="960" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A960" s="1">
-        <v>-2.0601639602800146E-3</v>
+        <v>-9.6783205263147216E-3</v>
       </c>
     </row>
     <row r="961" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A961" s="1">
-        <v>1.5606013542266161E-2</v>
+        <v>-2.0601639602800146E-3</v>
       </c>
     </row>
     <row r="962" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A962" s="1">
-        <v>-9.0124525628636938E-3</v>
+        <v>1.5606013542266161E-2</v>
       </c>
     </row>
     <row r="963" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A963" s="1">
-        <v>-1.1783124946560975E-3</v>
+        <v>-9.0124525628636938E-3</v>
       </c>
     </row>
     <row r="964" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A964" s="1">
-        <v>5.2674620528538442E-3</v>
+        <v>-1.1783124946560975E-3</v>
       </c>
     </row>
     <row r="965" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A965" s="1">
-        <v>-1.6253911554951195E-2</v>
+        <v>5.2674620528538442E-3</v>
       </c>
     </row>
     <row r="966" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A966" s="1">
-        <v>5.0364250643514909E-3</v>
+        <v>-1.6253911554951195E-2</v>
       </c>
     </row>
     <row r="967" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A967" s="1">
-        <v>2.8717165962934565E-2</v>
+        <v>5.0364250643514909E-3</v>
       </c>
     </row>
     <row r="968" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A968" s="1">
-        <v>-1.5205238268050536E-3</v>
+        <v>2.8717165962934565E-2</v>
       </c>
     </row>
     <row r="969" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A969" s="1">
-        <v>7.9412388381696168E-3</v>
+        <v>-1.5205238268050536E-3</v>
       </c>
     </row>
     <row r="970" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A970" s="1">
-        <v>-1.7544541561313843E-2</v>
+        <v>7.9412388381696168E-3</v>
       </c>
     </row>
     <row r="971" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A971" s="1">
-        <v>3.4556585653717776E-4</v>
+        <v>-1.7544541561313843E-2</v>
       </c>
     </row>
     <row r="972" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A972" s="1">
-        <v>-1.2149132757372883E-2</v>
+        <v>3.4556585653717776E-4</v>
       </c>
     </row>
     <row r="973" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A973" s="1">
-        <v>-6.65001746292031E-3</v>
+        <v>-1.2149132757372883E-2</v>
       </c>
     </row>
     <row r="974" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A974" s="1">
-        <v>5.1529041586208637E-3</v>
+        <v>-6.65001746292031E-3</v>
       </c>
     </row>
     <row r="975" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A975" s="1">
-        <v>-1.8774528328535923E-2</v>
+        <v>5.1529041586208637E-3</v>
       </c>
     </row>
     <row r="976" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A976" s="1">
-        <v>-1.7903022877895403E-2</v>
+        <v>-1.8774528328535923E-2</v>
       </c>
     </row>
     <row r="977" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A977" s="1">
-        <v>-8.6595153937112819E-3</v>
+        <v>-1.7903022877895403E-2</v>
       </c>
     </row>
     <row r="978" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A978" s="1">
-        <v>-2.8520309818507171E-4</v>
+        <v>-8.6595153937112819E-3</v>
       </c>
     </row>
     <row r="979" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A979" s="1">
-        <v>2.2286639797741261E-3</v>
+        <v>-2.8520309818507171E-4</v>
       </c>
     </row>
     <row r="980" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A980" s="1">
-        <v>1.771539173520793E-2</v>
+        <v>2.2286639797741261E-3</v>
       </c>
     </row>
     <row r="981" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A981" s="1">
-        <v>-2.0510522987240699E-2</v>
+        <v>1.771539173520793E-2</v>
       </c>
     </row>
     <row r="982" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A982" s="1">
-        <v>-9.8416866925974851E-3</v>
+        <v>-2.0510522987240699E-2</v>
       </c>
     </row>
     <row r="983" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A983" s="1">
-        <v>1.9841430859872843E-2</v>
+        <v>-9.8416866925974851E-3</v>
       </c>
     </row>
     <row r="984" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A984" s="1">
-        <v>5.3653095500811434E-3</v>
+        <v>1.9841430859872843E-2</v>
       </c>
     </row>
     <row r="985" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A985" s="1">
-        <v>-2.1268828967293983E-3</v>
+        <v>5.3653095500811434E-3</v>
       </c>
     </row>
     <row r="986" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A986" s="1">
-        <v>-8.2196927413871641E-3</v>
+        <v>-2.1268828967293983E-3</v>
       </c>
     </row>
     <row r="987" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A987" s="1">
-        <v>1.8658265689017028E-2</v>
+        <v>-8.2196927413871641E-3</v>
       </c>
     </row>
     <row r="988" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A988" s="1">
-        <v>-1.7425949486094439E-3</v>
+        <v>1.8658265689017028E-2</v>
       </c>
     </row>
     <row r="989" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A989" s="1">
-        <v>-1.4662427173683313E-2</v>
+        <v>-1.7425949486094439E-3</v>
       </c>
     </row>
     <row r="990" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A990" s="1">
-        <v>7.6572836143357749E-3</v>
+        <v>-1.4662427173683313E-2</v>
       </c>
     </row>
     <row r="991" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A991" s="1">
-        <v>6.0206472181782546E-3</v>
+        <v>7.6572836143357749E-3</v>
       </c>
     </row>
     <row r="992" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A992" s="1">
-        <v>-3.9570161904316946E-3</v>
+        <v>6.0206472181782546E-3</v>
       </c>
     </row>
     <row r="993" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A993" s="1">
-        <v>-6.5040228226010298E-3</v>
+        <v>-3.9570161904316946E-3</v>
       </c>
     </row>
     <row r="994" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A994" s="1">
-        <v>-6.1038840427201533E-3</v>
+        <v>-6.5040228226010298E-3</v>
       </c>
     </row>
     <row r="995" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A995" s="1">
-        <v>-7.4341823228323283E-4</v>
+        <v>-6.1038840427201533E-3</v>
       </c>
     </row>
     <row r="996" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A996" s="1">
-        <v>5.0801429318305226E-3</v>
+        <v>-7.4341823228323283E-4</v>
       </c>
     </row>
     <row r="997" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A997" s="1">
-        <v>-7.2619149951316684E-3</v>
+        <v>5.0801429318305226E-3</v>
       </c>
     </row>
     <row r="998" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A998" s="1">
-        <v>5.0242225419491861E-3</v>
+        <v>-7.2619149951316684E-3</v>
       </c>
     </row>
     <row r="999" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A999" s="1">
-        <v>2.1508013960471927E-2</v>
+        <v>5.0242225419491861E-3</v>
       </c>
     </row>
     <row r="1000" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1000" s="1">
+        <v>2.1508013960471927E-2</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1001" s="1">
         <v>1.5727530069098172E-2</v>
       </c>
     </row>
@@ -5427,6 +5443,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E8F28D071F92B143A4FA786576B72E71" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="840e3b7ca97fe1e17e693e9f0f8c1b68">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="46708553-1127-4b57-8463-cb4ad3609dde" xmlns:ns4="a851f458-b0fe-4dde-8b9c-c37b33150659" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="27d2bbe2ed687e7740ecd8925a11535d" ns3:_="" ns4:_="">
     <xsd:import namespace="46708553-1127-4b57-8463-cb4ad3609dde"/>
@@ -5649,12 +5671,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -5665,6 +5681,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3250CFDE-A936-49B7-AB84-30E653F3132A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="46708553-1127-4b57-8463-cb4ad3609dde"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a851f458-b0fe-4dde-8b9c-c37b33150659"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{025AA0AB-E2B2-4B5D-926D-7DD4726D8340}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5683,23 +5716,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3250CFDE-A936-49B7-AB84-30E653F3132A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="46708553-1127-4b57-8463-cb4ad3609dde"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="a851f458-b0fe-4dde-8b9c-c37b33150659"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{631CEDE2-BF22-4504-B5D8-7C5F57AA7381}">
   <ds:schemaRefs>
